--- a/source_data/Qual_4_data.xlsx
+++ b/source_data/Qual_4_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30275873-5850-4E19-BA7C-3DD66B5AE349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B3665-5E98-477E-8563-4C6E27DC7ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 - Percentage of wages paid du" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4 - Percentage of wages paid du'!$A$1:$R$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4 - Percentage of wages paid du'!$A$1:$S$186</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="566">
   <si>
     <t>ISO3</t>
   </si>
@@ -1728,6 +1728,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TIME_PERIOD</t>
   </si>
 </sst>
 </file>
@@ -2582,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,16 +2602,17 @@
     <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>557</v>
       </c>
@@ -2642,29 +2646,32 @@
       <c r="K1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>551</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>559</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57</v>
       </c>
@@ -2698,29 +2705,32 @@
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="L2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2">
         <v>100</v>
       </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>57</v>
       </c>
@@ -2754,29 +2764,32 @@
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="L3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="2">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2">
         <v>100</v>
       </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
         <v>14</v>
       </c>
-      <c r="R3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>57</v>
       </c>
@@ -2810,26 +2823,29 @@
       <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
+      <c r="L4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M4" s="2">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
         <v>17</v>
       </c>
-      <c r="R4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>57</v>
       </c>
@@ -2863,29 +2879,32 @@
       <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
-        <v>15</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="L5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M5" s="2">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
         <v>100</v>
       </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
         <v>20</v>
       </c>
-      <c r="R5">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>57</v>
       </c>
@@ -2919,29 +2938,32 @@
       <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="2">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="L6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2">
         <v>66.7</v>
       </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
         <v>23</v>
       </c>
-      <c r="R6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>57</v>
       </c>
@@ -2975,29 +2997,32 @@
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
-        <v>15</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="L7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M7" s="2">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
         <v>100</v>
       </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
       <c r="P7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="R7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>57</v>
       </c>
@@ -3031,29 +3056,32 @@
       <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
-        <v>15</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="L8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M8" s="2">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="2">
         <v>100</v>
       </c>
-      <c r="O8" t="s">
-        <v>9</v>
-      </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
         <v>29</v>
       </c>
-      <c r="R8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
@@ -3087,26 +3115,29 @@
       <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2">
-        <v>15</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="L9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M9" s="2">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2">
         <v>100</v>
       </c>
-      <c r="O9" t="s">
-        <v>9</v>
-      </c>
       <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>57</v>
       </c>
@@ -3140,29 +3171,32 @@
       <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
-        <v>15</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="L10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M10" s="2">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2">
         <v>100</v>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
         <v>35</v>
       </c>
-      <c r="R10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57</v>
       </c>
@@ -3196,26 +3230,29 @@
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="2">
-        <v>15</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" t="s">
-        <v>9</v>
+      <c r="L11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M11" s="2">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
         <v>38</v>
       </c>
-      <c r="R11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>57</v>
       </c>
@@ -3249,29 +3286,32 @@
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="2">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M12" s="2">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
         <v>90</v>
       </c>
-      <c r="O12" t="s">
-        <v>9</v>
-      </c>
       <c r="P12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>57</v>
       </c>
@@ -3305,29 +3345,32 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="2">
-        <v>15</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="L13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M13" s="2">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2">
         <v>100</v>
       </c>
-      <c r="O13" t="s">
-        <v>9</v>
-      </c>
       <c r="P13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
         <v>44</v>
       </c>
-      <c r="R13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -3361,26 +3404,29 @@
       <c r="K14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="2">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>9</v>
+      <c r="L14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M14" s="2">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
         <v>47</v>
       </c>
-      <c r="R14">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -3414,29 +3460,32 @@
       <c r="K15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="2">
-        <v>15</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="L15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2">
         <v>75</v>
       </c>
-      <c r="O15" t="s">
-        <v>9</v>
-      </c>
       <c r="P15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
         <v>51</v>
       </c>
-      <c r="R15">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>57</v>
       </c>
@@ -3470,29 +3519,32 @@
       <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="2">
-        <v>15</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="L16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2">
         <v>100</v>
       </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
       <c r="P16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
         <v>54</v>
       </c>
-      <c r="R16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57</v>
       </c>
@@ -3526,29 +3578,32 @@
       <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="2">
-        <v>15</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="L17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M17" s="2">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="2">
         <v>100</v>
       </c>
-      <c r="O17" t="s">
-        <v>9</v>
-      </c>
       <c r="P17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>57</v>
       </c>
@@ -3582,29 +3637,32 @@
       <c r="K18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="2">
-        <v>15</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="L18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M18" s="2">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="2">
         <v>70</v>
       </c>
-      <c r="O18" t="s">
-        <v>9</v>
-      </c>
       <c r="P18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
         <v>60</v>
       </c>
-      <c r="R18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57</v>
       </c>
@@ -3638,29 +3696,32 @@
       <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="2">
-        <v>15</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="L19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M19" s="2">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="2">
         <v>100</v>
       </c>
-      <c r="O19" t="s">
-        <v>9</v>
-      </c>
       <c r="P19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" t="s">
         <v>63</v>
       </c>
-      <c r="R19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -3694,29 +3755,32 @@
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="2">
-        <v>15</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="L20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M20" s="2">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="2">
         <v>100</v>
       </c>
-      <c r="O20" t="s">
-        <v>9</v>
-      </c>
       <c r="P20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
         <v>66</v>
       </c>
-      <c r="R20">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
@@ -3750,26 +3814,29 @@
       <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="2">
-        <v>15</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" t="s">
-        <v>9</v>
+      <c r="L21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M21" s="2">
+        <v>15</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" t="s">
         <v>69</v>
       </c>
-      <c r="R21">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>57</v>
       </c>
@@ -3803,29 +3870,32 @@
       <c r="K22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="2">
-        <v>15</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="L22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M22" s="2">
+        <v>15</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="2">
         <v>70</v>
       </c>
-      <c r="O22" t="s">
-        <v>9</v>
-      </c>
       <c r="P22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
         <v>72</v>
       </c>
-      <c r="R22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>57</v>
       </c>
@@ -3859,29 +3929,32 @@
       <c r="K23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="2">
-        <v>15</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="L23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="2">
         <v>80</v>
       </c>
-      <c r="O23" t="s">
-        <v>9</v>
-      </c>
       <c r="P23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" t="s">
         <v>75</v>
       </c>
-      <c r="R23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>57</v>
       </c>
@@ -3915,29 +3988,32 @@
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="2">
-        <v>15</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="L24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M24" s="2">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="2">
         <v>80</v>
       </c>
-      <c r="O24" t="s">
-        <v>9</v>
-      </c>
       <c r="P24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" t="s">
         <v>78</v>
       </c>
-      <c r="R24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>57</v>
       </c>
@@ -3971,29 +4047,32 @@
       <c r="K25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="2">
-        <v>15</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="L25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M25" s="2">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="2">
         <v>100</v>
       </c>
-      <c r="O25" t="s">
-        <v>9</v>
-      </c>
       <c r="P25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" t="s">
         <v>81</v>
       </c>
-      <c r="R25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>57</v>
       </c>
@@ -4027,29 +4106,32 @@
       <c r="K26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="2">
-        <v>15</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="L26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M26" s="2">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="2">
         <v>66.7</v>
       </c>
-      <c r="O26" t="s">
-        <v>9</v>
-      </c>
       <c r="P26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" t="s">
         <v>85</v>
       </c>
-      <c r="R26">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>57</v>
       </c>
@@ -4083,29 +4165,32 @@
       <c r="K27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="2">
-        <v>15</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="L27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M27" s="2">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="2">
         <v>100</v>
       </c>
-      <c r="O27" t="s">
-        <v>9</v>
-      </c>
       <c r="P27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" t="s">
         <v>88</v>
       </c>
-      <c r="R27">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>57</v>
       </c>
@@ -4139,29 +4224,32 @@
       <c r="K28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="2">
-        <v>15</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="L28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M28" s="2">
+        <v>15</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="2">
         <v>100</v>
       </c>
-      <c r="O28" t="s">
-        <v>9</v>
-      </c>
       <c r="P28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" t="s">
         <v>91</v>
       </c>
-      <c r="R28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>57</v>
       </c>
@@ -4195,29 +4283,32 @@
       <c r="K29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="2">
-        <v>15</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="L29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M29" s="2">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="2">
         <v>100</v>
       </c>
-      <c r="O29" t="s">
-        <v>9</v>
-      </c>
       <c r="P29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" t="s">
         <v>94</v>
       </c>
-      <c r="R29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>57</v>
       </c>
@@ -4251,29 +4342,32 @@
       <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="2">
-        <v>15</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="L30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="2">
+        <v>15</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="2">
         <v>100</v>
       </c>
-      <c r="O30" t="s">
-        <v>9</v>
-      </c>
       <c r="P30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q30" t="s">
+        <v>10</v>
+      </c>
+      <c r="R30" t="s">
         <v>97</v>
       </c>
-      <c r="R30">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -4307,23 +4401,26 @@
       <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="2">
-        <v>15</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" t="s">
-        <v>9</v>
+      <c r="L31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M31" s="2">
+        <v>15</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P31" t="s">
-        <v>10</v>
-      </c>
-      <c r="R31">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57</v>
       </c>
@@ -4357,29 +4454,32 @@
       <c r="K32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="2">
-        <v>15</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="L32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M32" s="2">
+        <v>15</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="2">
         <v>100</v>
       </c>
-      <c r="O32" t="s">
-        <v>9</v>
-      </c>
       <c r="P32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q32" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" t="s">
         <v>102</v>
       </c>
-      <c r="R32">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>57</v>
       </c>
@@ -4413,26 +4513,29 @@
       <c r="K33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="2">
-        <v>15</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="L33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M33" s="2">
+        <v>15</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="2">
         <v>100</v>
       </c>
-      <c r="O33" t="s">
-        <v>9</v>
-      </c>
       <c r="P33" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>57</v>
       </c>
@@ -4466,29 +4569,32 @@
       <c r="K34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="2">
-        <v>15</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="2">
+      <c r="L34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M34" s="2">
+        <v>15</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="2">
         <v>100</v>
       </c>
-      <c r="O34" t="s">
-        <v>9</v>
-      </c>
       <c r="P34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" t="s">
         <v>107</v>
       </c>
-      <c r="R34">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>57</v>
       </c>
@@ -4522,26 +4628,29 @@
       <c r="K35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="2">
-        <v>15</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" t="s">
-        <v>9</v>
+      <c r="L35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="2">
+        <v>15</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q35" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" t="s">
         <v>110</v>
       </c>
-      <c r="R35">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57</v>
       </c>
@@ -4575,29 +4684,32 @@
       <c r="K36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="2">
-        <v>15</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="L36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="2">
+        <v>15</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="2">
         <v>100</v>
       </c>
-      <c r="O36" t="s">
-        <v>9</v>
-      </c>
       <c r="P36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" t="s">
         <v>113</v>
       </c>
-      <c r="R36">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>57</v>
       </c>
@@ -4631,29 +4743,32 @@
       <c r="K37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="2">
-        <v>15</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="L37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M37" s="2">
+        <v>15</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="2">
         <v>100</v>
       </c>
-      <c r="O37" t="s">
-        <v>9</v>
-      </c>
       <c r="P37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37" t="s">
         <v>116</v>
       </c>
-      <c r="R37">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>57</v>
       </c>
@@ -4687,29 +4802,32 @@
       <c r="K38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="2">
-        <v>15</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="L38" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M38" s="2">
+        <v>15</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
         <v>85</v>
       </c>
-      <c r="O38" t="s">
-        <v>9</v>
-      </c>
       <c r="P38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q38" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" t="s">
         <v>119</v>
       </c>
-      <c r="R38">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>57</v>
       </c>
@@ -4743,29 +4861,32 @@
       <c r="K39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="2">
-        <v>15</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="L39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M39" s="2">
+        <v>15</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2">
         <v>100</v>
       </c>
-      <c r="O39" t="s">
-        <v>9</v>
-      </c>
       <c r="P39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q39" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" t="s">
         <v>122</v>
       </c>
-      <c r="R39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57</v>
       </c>
@@ -4799,29 +4920,32 @@
       <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="2">
-        <v>15</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="L40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M40" s="2">
+        <v>15</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" s="2">
         <v>100</v>
       </c>
-      <c r="O40" t="s">
-        <v>9</v>
-      </c>
       <c r="P40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" t="s">
         <v>125</v>
       </c>
-      <c r="R40">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>57</v>
       </c>
@@ -4855,26 +4979,29 @@
       <c r="K41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="2">
-        <v>15</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" t="s">
-        <v>9</v>
+      <c r="L41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="2">
+        <v>15</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" t="s">
         <v>128</v>
       </c>
-      <c r="R41">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>57</v>
       </c>
@@ -4908,29 +5035,32 @@
       <c r="K42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="2">
-        <v>15</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="2">
+      <c r="L42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M42" s="2">
+        <v>15</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="2">
         <v>100</v>
       </c>
-      <c r="O42" t="s">
-        <v>9</v>
-      </c>
       <c r="P42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q42" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" t="s">
         <v>131</v>
       </c>
-      <c r="R42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -4964,29 +5094,32 @@
       <c r="K43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="2">
-        <v>15</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="2">
+      <c r="L43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M43" s="2">
+        <v>15</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="2">
         <v>100</v>
       </c>
-      <c r="O43" t="s">
-        <v>9</v>
-      </c>
       <c r="P43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q43" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" t="s">
         <v>134</v>
       </c>
-      <c r="R43">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57</v>
       </c>
@@ -5020,29 +5153,32 @@
       <c r="K44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="2">
-        <v>15</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="L44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M44" s="2">
+        <v>15</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="2">
         <v>80</v>
       </c>
-      <c r="O44" t="s">
-        <v>9</v>
-      </c>
       <c r="P44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q44" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" t="s">
         <v>137</v>
       </c>
-      <c r="R44">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>57</v>
       </c>
@@ -5076,29 +5212,32 @@
       <c r="K45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="2">
-        <v>15</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="L45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M45" s="2">
+        <v>15</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="2">
         <v>80</v>
       </c>
-      <c r="O45" t="s">
-        <v>9</v>
-      </c>
       <c r="P45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" t="s">
         <v>140</v>
       </c>
-      <c r="R45">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -5132,29 +5271,32 @@
       <c r="K46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="2">
-        <v>15</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="2">
+      <c r="L46" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M46" s="2">
+        <v>15</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="2">
         <v>100</v>
       </c>
-      <c r="O46" t="s">
-        <v>9</v>
-      </c>
       <c r="P46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" t="s">
         <v>125</v>
       </c>
-      <c r="R46">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57</v>
       </c>
@@ -5188,26 +5330,29 @@
       <c r="K47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="2">
-        <v>15</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="L47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M47" s="2">
+        <v>15</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="2">
         <v>100</v>
       </c>
-      <c r="O47" t="s">
-        <v>9</v>
-      </c>
       <c r="P47" t="s">
-        <v>10</v>
-      </c>
-      <c r="R47">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -5241,26 +5386,29 @@
       <c r="K48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="2">
-        <v>15</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" t="s">
-        <v>9</v>
+      <c r="L48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M48" s="2">
+        <v>15</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q48" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" t="s">
         <v>147</v>
       </c>
-      <c r="R48">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>57</v>
       </c>
@@ -5294,26 +5442,29 @@
       <c r="K49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L49" s="2">
-        <v>15</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="2">
+      <c r="L49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M49" s="2">
+        <v>15</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="2">
         <v>90</v>
       </c>
-      <c r="O49" t="s">
-        <v>9</v>
-      </c>
       <c r="P49" t="s">
-        <v>10</v>
-      </c>
-      <c r="R49">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>57</v>
       </c>
@@ -5347,29 +5498,32 @@
       <c r="K50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="2">
-        <v>15</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N50" s="2">
+      <c r="L50" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M50" s="2">
+        <v>15</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="2">
         <v>100</v>
       </c>
-      <c r="O50" t="s">
-        <v>9</v>
-      </c>
       <c r="P50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q50" t="s">
+        <v>10</v>
+      </c>
+      <c r="R50" t="s">
         <v>152</v>
       </c>
-      <c r="R50">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>57</v>
       </c>
@@ -5403,29 +5557,32 @@
       <c r="K51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="2">
-        <v>15</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N51" s="2">
+      <c r="L51" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M51" s="2">
+        <v>15</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="2">
         <v>66.7</v>
       </c>
-      <c r="O51" t="s">
-        <v>9</v>
-      </c>
       <c r="P51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+      <c r="R51" t="s">
         <v>155</v>
       </c>
-      <c r="R51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5459,29 +5616,32 @@
       <c r="K52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L52" s="2">
-        <v>15</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="L52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M52" s="2">
+        <v>15</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="2">
         <v>100</v>
       </c>
-      <c r="O52" t="s">
-        <v>9</v>
-      </c>
       <c r="P52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q52" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" t="s">
         <v>158</v>
       </c>
-      <c r="R52">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
@@ -5515,29 +5675,32 @@
       <c r="K53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L53" s="2">
-        <v>15</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="2">
+      <c r="L53" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M53" s="2">
+        <v>15</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O53" s="2">
         <v>100</v>
       </c>
-      <c r="O53" t="s">
-        <v>9</v>
-      </c>
       <c r="P53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" t="s">
         <v>162</v>
       </c>
-      <c r="R53">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -5571,29 +5734,32 @@
       <c r="K54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L54" s="2">
-        <v>15</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="2">
+      <c r="L54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M54" s="2">
+        <v>15</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="2">
         <v>100</v>
       </c>
-      <c r="O54" t="s">
-        <v>9</v>
-      </c>
       <c r="P54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q54" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" t="s">
         <v>166</v>
       </c>
-      <c r="R54">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
@@ -5627,29 +5793,32 @@
       <c r="K55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L55" s="2">
-        <v>15</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="L55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M55" s="2">
+        <v>15</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" s="2">
         <v>100</v>
       </c>
-      <c r="O55" t="s">
-        <v>9</v>
-      </c>
       <c r="P55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R55" t="s">
         <v>169</v>
       </c>
-      <c r="R55">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
@@ -5683,29 +5852,32 @@
       <c r="K56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L56" s="2">
-        <v>15</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="L56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="2">
+        <v>15</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" s="2">
         <v>100</v>
       </c>
-      <c r="O56" t="s">
-        <v>9</v>
-      </c>
       <c r="P56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q56" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" t="s">
         <v>172</v>
       </c>
-      <c r="R56">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5739,29 +5911,32 @@
       <c r="K57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L57" s="2">
-        <v>15</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="2">
+      <c r="L57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M57" s="2">
+        <v>15</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="2">
         <v>90</v>
       </c>
-      <c r="O57" t="s">
-        <v>9</v>
-      </c>
       <c r="P57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q57" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" t="s">
         <v>175</v>
       </c>
-      <c r="R57">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5795,29 +5970,32 @@
       <c r="K58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L58" s="2">
-        <v>15</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="2">
+      <c r="L58" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M58" s="2">
+        <v>15</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="2">
         <v>100</v>
       </c>
-      <c r="O58" t="s">
-        <v>9</v>
-      </c>
       <c r="P58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q58" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
         <v>178</v>
       </c>
-      <c r="R58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5851,29 +6029,32 @@
       <c r="K59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L59" s="2">
-        <v>15</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="L59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M59" s="2">
+        <v>15</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="2">
         <v>100</v>
       </c>
-      <c r="O59" t="s">
-        <v>9</v>
-      </c>
       <c r="P59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q59" t="s">
+        <v>10</v>
+      </c>
+      <c r="R59" t="s">
         <v>181</v>
       </c>
-      <c r="R59">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -5907,29 +6088,32 @@
       <c r="K60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L60" s="2">
-        <v>15</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="2">
+      <c r="L60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M60" s="2">
+        <v>15</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="2">
         <v>66.7</v>
       </c>
-      <c r="O60" t="s">
-        <v>9</v>
-      </c>
       <c r="P60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q60" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" t="s">
         <v>184</v>
       </c>
-      <c r="R60">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -5963,29 +6147,32 @@
       <c r="K61" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L61" s="2">
-        <v>15</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N61" s="2">
+      <c r="L61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M61" s="2">
+        <v>15</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" s="2">
         <v>100</v>
       </c>
-      <c r="O61" t="s">
-        <v>9</v>
-      </c>
       <c r="P61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" t="s">
         <v>187</v>
       </c>
-      <c r="R61">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>57</v>
       </c>
@@ -6019,29 +6206,32 @@
       <c r="K62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L62" s="2">
-        <v>15</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="2">
+      <c r="L62" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M62" s="2">
+        <v>15</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="2">
         <v>75</v>
       </c>
-      <c r="O62" t="s">
-        <v>9</v>
-      </c>
       <c r="P62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q62" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" t="s">
         <v>190</v>
       </c>
-      <c r="R62">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>57</v>
       </c>
@@ -6075,29 +6265,32 @@
       <c r="K63" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L63" s="2">
-        <v>15</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N63" s="2">
+      <c r="L63" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M63" s="2">
+        <v>15</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="2">
         <v>100</v>
       </c>
-      <c r="O63" t="s">
-        <v>9</v>
-      </c>
       <c r="P63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="s">
+        <v>10</v>
+      </c>
+      <c r="R63" t="s">
         <v>193</v>
       </c>
-      <c r="R63">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
@@ -6131,29 +6324,32 @@
       <c r="K64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L64" s="2">
-        <v>15</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="L64" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M64" s="2">
+        <v>15</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O64" s="2">
         <v>100</v>
       </c>
-      <c r="O64" t="s">
-        <v>9</v>
-      </c>
       <c r="P64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q64" t="s">
+        <v>10</v>
+      </c>
+      <c r="R64" t="s">
         <v>196</v>
       </c>
-      <c r="R64">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -6187,29 +6383,32 @@
       <c r="K65" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L65" s="2">
-        <v>15</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="L65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M65" s="2">
+        <v>15</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O65" s="2">
         <v>100</v>
       </c>
-      <c r="O65" t="s">
-        <v>9</v>
-      </c>
       <c r="P65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65" t="s">
         <v>199</v>
       </c>
-      <c r="R65">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>57</v>
       </c>
@@ -6243,29 +6442,32 @@
       <c r="K66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L66" s="2">
-        <v>15</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="2">
+      <c r="L66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M66" s="2">
+        <v>15</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="2">
         <v>100</v>
       </c>
-      <c r="O66" t="s">
-        <v>9</v>
-      </c>
       <c r="P66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q66" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" t="s">
         <v>202</v>
       </c>
-      <c r="R66">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -6299,29 +6501,32 @@
       <c r="K67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L67" s="2">
-        <v>15</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N67" s="2">
+      <c r="L67" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M67" s="2">
+        <v>15</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O67" s="2">
         <v>100</v>
       </c>
-      <c r="O67" t="s">
-        <v>9</v>
-      </c>
       <c r="P67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q67" t="s">
+        <v>10</v>
+      </c>
+      <c r="R67" t="s">
         <v>205</v>
       </c>
-      <c r="R67">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>57</v>
       </c>
@@ -6355,29 +6560,32 @@
       <c r="K68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L68" s="2">
-        <v>15</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N68" s="2">
+      <c r="L68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M68" s="2">
+        <v>15</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O68" s="2">
         <v>100</v>
       </c>
-      <c r="O68" t="s">
-        <v>9</v>
-      </c>
       <c r="P68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R68" t="s">
         <v>208</v>
       </c>
-      <c r="R68">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>57</v>
       </c>
@@ -6411,29 +6619,32 @@
       <c r="K69" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L69" s="2">
-        <v>15</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N69" s="2">
+      <c r="L69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M69" s="2">
+        <v>15</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O69" s="2">
         <v>100</v>
       </c>
-      <c r="O69" t="s">
-        <v>9</v>
-      </c>
       <c r="P69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q69" t="s">
+        <v>10</v>
+      </c>
+      <c r="R69" t="s">
         <v>211</v>
       </c>
-      <c r="R69">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>57</v>
       </c>
@@ -6467,29 +6678,32 @@
       <c r="K70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L70" s="2">
-        <v>15</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N70" s="2">
+      <c r="L70" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M70" s="2">
+        <v>15</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="2">
         <v>100</v>
       </c>
-      <c r="O70" t="s">
-        <v>9</v>
-      </c>
       <c r="P70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q70" t="s">
+        <v>10</v>
+      </c>
+      <c r="R70" t="s">
         <v>214</v>
       </c>
-      <c r="R70">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>57</v>
       </c>
@@ -6523,29 +6737,32 @@
       <c r="K71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L71" s="2">
-        <v>15</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="L71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M71" s="2">
+        <v>15</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O71" s="2">
         <v>100</v>
       </c>
-      <c r="O71" t="s">
-        <v>9</v>
-      </c>
       <c r="P71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q71" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" t="s">
         <v>217</v>
       </c>
-      <c r="R71">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>57</v>
       </c>
@@ -6579,29 +6796,32 @@
       <c r="K72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L72" s="2">
-        <v>15</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="2">
+      <c r="L72" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M72" s="2">
+        <v>15</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="2">
         <v>100</v>
       </c>
-      <c r="O72" t="s">
-        <v>9</v>
-      </c>
       <c r="P72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q72" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" t="s">
         <v>220</v>
       </c>
-      <c r="R72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6635,29 +6855,32 @@
       <c r="K73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L73" s="2">
-        <v>15</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N73" s="2">
+      <c r="L73" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M73" s="2">
+        <v>15</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="2">
         <v>100</v>
       </c>
-      <c r="O73" t="s">
-        <v>9</v>
-      </c>
       <c r="P73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q73" t="s">
+        <v>10</v>
+      </c>
+      <c r="R73" t="s">
         <v>223</v>
       </c>
-      <c r="R73">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>57</v>
       </c>
@@ -6691,29 +6914,32 @@
       <c r="K74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L74" s="2">
-        <v>15</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N74" s="2">
+      <c r="L74" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M74" s="2">
+        <v>15</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O74" s="2">
         <v>100</v>
       </c>
-      <c r="O74" t="s">
-        <v>9</v>
-      </c>
       <c r="P74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q74" t="s">
+        <v>10</v>
+      </c>
+      <c r="R74" t="s">
         <v>226</v>
       </c>
-      <c r="R74">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6747,29 +6973,32 @@
       <c r="K75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L75" s="2">
-        <v>15</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N75" s="2">
+      <c r="L75" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M75" s="2">
+        <v>15</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O75" s="2">
         <v>100</v>
       </c>
-      <c r="O75" t="s">
-        <v>9</v>
-      </c>
       <c r="P75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q75" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" t="s">
         <v>229</v>
       </c>
-      <c r="R75">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>57</v>
       </c>
@@ -6803,29 +7032,32 @@
       <c r="K76" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L76" s="2">
-        <v>15</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="2">
+      <c r="L76" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M76" s="2">
+        <v>15</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="2">
         <v>100</v>
       </c>
-      <c r="O76" t="s">
-        <v>9</v>
-      </c>
       <c r="P76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q76" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" t="s">
         <v>232</v>
       </c>
-      <c r="R76">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>57</v>
       </c>
@@ -6859,29 +7091,32 @@
       <c r="K77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L77" s="2">
-        <v>15</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N77" s="2">
+      <c r="L77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M77" s="2">
+        <v>15</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O77" s="2">
         <v>100</v>
       </c>
-      <c r="O77" t="s">
-        <v>9</v>
-      </c>
       <c r="P77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R77" t="s">
         <v>235</v>
       </c>
-      <c r="R77">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>57</v>
       </c>
@@ -6915,29 +7150,32 @@
       <c r="K78" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L78" s="2">
-        <v>15</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N78" s="2">
+      <c r="L78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M78" s="2">
+        <v>15</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O78" s="2">
         <v>100</v>
       </c>
-      <c r="O78" t="s">
-        <v>9</v>
-      </c>
       <c r="P78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q78" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" t="s">
         <v>238</v>
       </c>
-      <c r="R78">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57</v>
       </c>
@@ -6971,29 +7209,32 @@
       <c r="K79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L79" s="2">
-        <v>15</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N79" s="2">
+      <c r="L79" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M79" s="2">
+        <v>15</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O79" s="2">
         <v>100</v>
       </c>
-      <c r="O79" t="s">
-        <v>9</v>
-      </c>
       <c r="P79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" t="s">
         <v>241</v>
       </c>
-      <c r="R79">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>57</v>
       </c>
@@ -7027,26 +7268,29 @@
       <c r="K80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L80" s="2">
-        <v>15</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O80" t="s">
-        <v>9</v>
+      <c r="L80" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M80" s="2">
+        <v>15</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q80" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" t="s">
         <v>244</v>
       </c>
-      <c r="R80">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>57</v>
       </c>
@@ -7080,29 +7324,32 @@
       <c r="K81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L81" s="2">
-        <v>15</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="2">
+      <c r="L81" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M81" s="2">
+        <v>15</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="2">
         <v>100</v>
       </c>
-      <c r="O81" t="s">
-        <v>9</v>
-      </c>
       <c r="P81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q81" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" t="s">
         <v>247</v>
       </c>
-      <c r="R81">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>57</v>
       </c>
@@ -7136,29 +7383,32 @@
       <c r="K82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L82" s="2">
-        <v>15</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N82" s="2">
+      <c r="L82" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M82" s="2">
+        <v>15</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O82" s="2">
         <v>100</v>
       </c>
-      <c r="O82" t="s">
-        <v>9</v>
-      </c>
       <c r="P82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q82" t="s">
+        <v>10</v>
+      </c>
+      <c r="R82" t="s">
         <v>250</v>
       </c>
-      <c r="R82">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>57</v>
       </c>
@@ -7192,26 +7442,29 @@
       <c r="K83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L83" s="2">
-        <v>15</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="2">
+      <c r="L83" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M83" s="2">
+        <v>15</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="2">
         <v>100</v>
       </c>
-      <c r="O83" t="s">
-        <v>9</v>
-      </c>
       <c r="P83" t="s">
-        <v>10</v>
-      </c>
-      <c r="R83">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>10</v>
+      </c>
+      <c r="S83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>57</v>
       </c>
@@ -7245,29 +7498,32 @@
       <c r="K84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L84" s="2">
-        <v>15</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N84" s="2">
+      <c r="L84" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M84" s="2">
+        <v>15</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O84" s="2">
         <v>100</v>
       </c>
-      <c r="O84" t="s">
-        <v>9</v>
-      </c>
       <c r="P84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" t="s">
         <v>255</v>
       </c>
-      <c r="R84">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>57</v>
       </c>
@@ -7301,29 +7557,32 @@
       <c r="K85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L85" s="2">
-        <v>15</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N85" s="2">
+      <c r="L85" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M85" s="2">
+        <v>15</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O85" s="2">
         <v>100</v>
       </c>
-      <c r="O85" t="s">
-        <v>9</v>
-      </c>
       <c r="P85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q85" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" t="s">
         <v>258</v>
       </c>
-      <c r="R85">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>57</v>
       </c>
@@ -7357,26 +7616,29 @@
       <c r="K86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L86" s="2">
-        <v>15</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O86" t="s">
-        <v>9</v>
+      <c r="L86" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M86" s="2">
+        <v>15</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q86" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" t="s">
         <v>261</v>
       </c>
-      <c r="R86">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>57</v>
       </c>
@@ -7410,29 +7672,32 @@
       <c r="K87" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L87" s="2">
-        <v>15</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N87" s="2">
+      <c r="L87" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M87" s="2">
+        <v>15</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O87" s="2">
         <v>100</v>
       </c>
-      <c r="O87" t="s">
-        <v>9</v>
-      </c>
       <c r="P87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q87" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" t="s">
         <v>264</v>
       </c>
-      <c r="R87">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>57</v>
       </c>
@@ -7466,29 +7731,32 @@
       <c r="K88" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L88" s="2">
-        <v>15</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N88" s="2">
+      <c r="L88" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M88" s="2">
+        <v>15</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O88" s="2">
         <v>100</v>
       </c>
-      <c r="O88" t="s">
-        <v>9</v>
-      </c>
       <c r="P88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q88" t="s">
+        <v>10</v>
+      </c>
+      <c r="R88" t="s">
         <v>267</v>
       </c>
-      <c r="R88">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -7522,29 +7790,32 @@
       <c r="K89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L89" s="2">
-        <v>15</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="2">
+      <c r="L89" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M89" s="2">
+        <v>15</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="2">
         <v>100</v>
       </c>
-      <c r="O89" t="s">
-        <v>9</v>
-      </c>
       <c r="P89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q89" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" t="s">
         <v>270</v>
       </c>
-      <c r="R89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -7578,29 +7849,32 @@
       <c r="K90" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L90" s="2">
-        <v>15</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N90" s="2">
+      <c r="L90" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M90" s="2">
+        <v>15</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O90" s="2">
         <v>100</v>
       </c>
-      <c r="O90" t="s">
-        <v>9</v>
-      </c>
       <c r="P90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q90" t="s">
+        <v>10</v>
+      </c>
+      <c r="R90" t="s">
         <v>273</v>
       </c>
-      <c r="R90">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -7634,29 +7908,32 @@
       <c r="K91" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L91" s="2">
-        <v>15</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="2">
+      <c r="L91" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M91" s="2">
+        <v>15</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="2">
         <v>100</v>
       </c>
-      <c r="O91" t="s">
-        <v>9</v>
-      </c>
       <c r="P91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q91" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" t="s">
         <v>202</v>
       </c>
-      <c r="R91">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>57</v>
       </c>
@@ -7690,29 +7967,32 @@
       <c r="K92" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L92" s="2">
-        <v>15</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N92" s="2">
+      <c r="L92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M92" s="2">
+        <v>15</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O92" s="2">
         <v>100</v>
       </c>
-      <c r="O92" t="s">
-        <v>9</v>
-      </c>
       <c r="P92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R92" t="s">
         <v>279</v>
       </c>
-      <c r="R92">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>57</v>
       </c>
@@ -7746,29 +8026,32 @@
       <c r="K93" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L93" s="2">
-        <v>15</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N93" s="2">
+      <c r="L93" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M93" s="2">
+        <v>15</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O93" s="2">
         <v>100</v>
       </c>
-      <c r="O93" t="s">
-        <v>9</v>
-      </c>
       <c r="P93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q93" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" t="s">
         <v>282</v>
       </c>
-      <c r="R93">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>57</v>
       </c>
@@ -7802,29 +8085,32 @@
       <c r="K94" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L94" s="2">
-        <v>15</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="2">
+      <c r="L94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M94" s="2">
+        <v>15</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="2">
         <v>100</v>
       </c>
-      <c r="O94" t="s">
-        <v>9</v>
-      </c>
       <c r="P94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q94" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" t="s">
         <v>285</v>
       </c>
-      <c r="R94">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>57</v>
       </c>
@@ -7858,29 +8144,32 @@
       <c r="K95" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L95" s="2">
-        <v>15</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N95" s="2">
+      <c r="L95" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M95" s="2">
+        <v>15</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O95" s="2">
         <v>100</v>
       </c>
-      <c r="O95" t="s">
-        <v>9</v>
-      </c>
       <c r="P95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q95" t="s">
+        <v>10</v>
+      </c>
+      <c r="R95" t="s">
         <v>288</v>
       </c>
-      <c r="R95">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>57</v>
       </c>
@@ -7914,29 +8203,32 @@
       <c r="K96" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L96" s="2">
-        <v>15</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N96" s="2">
+      <c r="L96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M96" s="2">
+        <v>15</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O96" s="2">
         <v>100</v>
       </c>
-      <c r="O96" t="s">
-        <v>9</v>
-      </c>
       <c r="P96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q96" t="s">
+        <v>10</v>
+      </c>
+      <c r="R96" t="s">
         <v>291</v>
       </c>
-      <c r="R96">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>57</v>
       </c>
@@ -7970,29 +8262,32 @@
       <c r="K97" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L97" s="2">
-        <v>15</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N97" s="2">
+      <c r="L97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M97" s="2">
+        <v>15</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O97" s="2">
         <v>100</v>
       </c>
-      <c r="O97" t="s">
-        <v>9</v>
-      </c>
       <c r="P97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q97" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" t="s">
         <v>294</v>
       </c>
-      <c r="R97">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>57</v>
       </c>
@@ -8026,26 +8321,29 @@
       <c r="K98" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L98" s="2">
-        <v>15</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N98" s="2">
+      <c r="L98" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M98" s="2">
+        <v>15</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O98" s="2">
         <v>66.7</v>
       </c>
-      <c r="O98" t="s">
-        <v>9</v>
-      </c>
       <c r="P98" t="s">
-        <v>10</v>
-      </c>
-      <c r="R98">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>10</v>
+      </c>
+      <c r="S98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>57</v>
       </c>
@@ -8079,29 +8377,32 @@
       <c r="K99" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L99" s="2">
-        <v>15</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N99" s="2">
+      <c r="L99" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M99" s="2">
+        <v>15</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O99" s="2">
         <v>100</v>
       </c>
-      <c r="O99" t="s">
-        <v>9</v>
-      </c>
       <c r="P99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q99" t="s">
+        <v>10</v>
+      </c>
+      <c r="R99" t="s">
         <v>299</v>
       </c>
-      <c r="R99">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>57</v>
       </c>
@@ -8135,29 +8436,32 @@
       <c r="K100" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L100" s="2">
-        <v>15</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="2">
+      <c r="L100" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M100" s="2">
+        <v>15</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="2">
         <v>100</v>
       </c>
-      <c r="O100" t="s">
-        <v>9</v>
-      </c>
       <c r="P100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q100" t="s">
+        <v>10</v>
+      </c>
+      <c r="R100" t="s">
         <v>125</v>
       </c>
-      <c r="R100">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>57</v>
       </c>
@@ -8191,26 +8495,29 @@
       <c r="K101" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L101" s="2">
-        <v>15</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" t="s">
-        <v>9</v>
+      <c r="L101" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M101" s="2">
+        <v>15</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="P101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q101" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" t="s">
         <v>304</v>
       </c>
-      <c r="R101">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>57</v>
       </c>
@@ -8244,29 +8551,32 @@
       <c r="K102" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L102" s="2">
-        <v>15</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="2">
+      <c r="L102" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M102" s="2">
+        <v>15</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="2">
         <v>100</v>
       </c>
-      <c r="O102" t="s">
-        <v>9</v>
-      </c>
       <c r="P102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q102" t="s">
+        <v>10</v>
+      </c>
+      <c r="R102" t="s">
         <v>307</v>
       </c>
-      <c r="R102">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>57</v>
       </c>
@@ -8300,29 +8610,32 @@
       <c r="K103" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L103" s="2">
-        <v>15</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N103" s="2">
+      <c r="L103" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M103" s="2">
+        <v>15</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O103" s="2">
         <v>100</v>
       </c>
-      <c r="O103" t="s">
-        <v>9</v>
-      </c>
       <c r="P103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q103" t="s">
+        <v>10</v>
+      </c>
+      <c r="R103" t="s">
         <v>310</v>
       </c>
-      <c r="R103">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>57</v>
       </c>
@@ -8356,29 +8669,32 @@
       <c r="K104" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L104" s="2">
-        <v>15</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N104" s="2">
+      <c r="L104" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M104" s="2">
+        <v>15</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O104" s="2">
         <v>100</v>
       </c>
-      <c r="O104" t="s">
-        <v>9</v>
-      </c>
       <c r="P104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q104" t="s">
+        <v>10</v>
+      </c>
+      <c r="R104" t="s">
         <v>313</v>
       </c>
-      <c r="R104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>57</v>
       </c>
@@ -8412,29 +8728,32 @@
       <c r="K105" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L105" s="2">
-        <v>15</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N105" s="2">
+      <c r="L105" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M105" s="2">
+        <v>15</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O105" s="2">
         <v>75</v>
       </c>
-      <c r="O105" t="s">
-        <v>9</v>
-      </c>
       <c r="P105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q105" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" t="s">
         <v>316</v>
       </c>
-      <c r="R105">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>57</v>
       </c>
@@ -8468,29 +8787,32 @@
       <c r="K106" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L106" s="2">
-        <v>15</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N106" s="2">
+      <c r="L106" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M106" s="2">
+        <v>15</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O106" s="2">
         <v>100</v>
       </c>
-      <c r="O106" t="s">
-        <v>9</v>
-      </c>
       <c r="P106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q106" t="s">
+        <v>10</v>
+      </c>
+      <c r="R106" t="s">
         <v>319</v>
       </c>
-      <c r="R106">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>57</v>
       </c>
@@ -8524,29 +8846,32 @@
       <c r="K107" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L107" s="2">
-        <v>15</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N107" s="2">
+      <c r="L107" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M107" s="2">
+        <v>15</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O107" s="2">
         <v>70</v>
       </c>
-      <c r="O107" t="s">
-        <v>9</v>
-      </c>
       <c r="P107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q107" t="s">
+        <v>10</v>
+      </c>
+      <c r="R107" t="s">
         <v>322</v>
       </c>
-      <c r="R107">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>57</v>
       </c>
@@ -8580,29 +8905,32 @@
       <c r="K108" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L108" s="2">
-        <v>15</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N108" s="2">
+      <c r="L108" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M108" s="2">
+        <v>15</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O108" s="2">
         <v>100</v>
       </c>
-      <c r="O108" t="s">
-        <v>9</v>
-      </c>
       <c r="P108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q108" t="s">
+        <v>10</v>
+      </c>
+      <c r="R108" t="s">
         <v>325</v>
       </c>
-      <c r="R108">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>57</v>
       </c>
@@ -8636,29 +8964,32 @@
       <c r="K109" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L109" s="2">
-        <v>15</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N109" s="2">
+      <c r="L109" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M109" s="2">
+        <v>15</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O109" s="2">
         <v>100</v>
       </c>
-      <c r="O109" t="s">
-        <v>9</v>
-      </c>
       <c r="P109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q109" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" t="s">
         <v>328</v>
       </c>
-      <c r="R109">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>57</v>
       </c>
@@ -8692,29 +9023,32 @@
       <c r="K110" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L110" s="2">
-        <v>15</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N110" s="2">
+      <c r="L110" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M110" s="2">
+        <v>15</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O110" s="2">
         <v>100</v>
       </c>
-      <c r="O110" t="s">
-        <v>9</v>
-      </c>
       <c r="P110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q110" t="s">
+        <v>10</v>
+      </c>
+      <c r="R110" t="s">
         <v>331</v>
       </c>
-      <c r="R110">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>57</v>
       </c>
@@ -8748,29 +9082,32 @@
       <c r="K111" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L111" s="2">
-        <v>15</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N111" s="2">
+      <c r="L111" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M111" s="2">
+        <v>15</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O111" s="2">
         <v>100</v>
       </c>
-      <c r="O111" t="s">
-        <v>9</v>
-      </c>
       <c r="P111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q111" t="s">
+        <v>10</v>
+      </c>
+      <c r="R111" t="s">
         <v>334</v>
       </c>
-      <c r="R111">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>57</v>
       </c>
@@ -8804,29 +9141,32 @@
       <c r="K112" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L112" s="2">
-        <v>15</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N112" s="2">
+      <c r="L112" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M112" s="2">
+        <v>15</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O112" s="2">
         <v>100</v>
       </c>
-      <c r="O112" t="s">
-        <v>9</v>
-      </c>
       <c r="P112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q112" t="s">
+        <v>10</v>
+      </c>
+      <c r="R112" t="s">
         <v>337</v>
       </c>
-      <c r="R112">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>57</v>
       </c>
@@ -8860,29 +9200,32 @@
       <c r="K113" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L113" s="2">
-        <v>15</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N113" s="2">
+      <c r="L113" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M113" s="2">
+        <v>15</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O113" s="2">
         <v>100</v>
       </c>
-      <c r="O113" t="s">
-        <v>9</v>
-      </c>
       <c r="P113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q113" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" t="s">
         <v>340</v>
       </c>
-      <c r="R113">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>57</v>
       </c>
@@ -8916,29 +9259,32 @@
       <c r="K114" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L114" s="2">
-        <v>15</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N114" s="2">
+      <c r="L114" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M114" s="2">
+        <v>15</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O114" s="2">
         <v>100</v>
       </c>
-      <c r="O114" t="s">
-        <v>9</v>
-      </c>
       <c r="P114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q114" t="s">
+        <v>10</v>
+      </c>
+      <c r="R114" t="s">
         <v>343</v>
       </c>
-      <c r="R114">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>57</v>
       </c>
@@ -8972,26 +9318,29 @@
       <c r="K115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L115" s="2">
-        <v>15</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N115" s="2">
+      <c r="L115" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M115" s="2">
+        <v>15</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O115" s="2">
         <v>100</v>
       </c>
-      <c r="O115" t="s">
-        <v>9</v>
-      </c>
       <c r="P115" t="s">
-        <v>10</v>
-      </c>
-      <c r="R115">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>10</v>
+      </c>
+      <c r="S115">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>57</v>
       </c>
@@ -9025,29 +9374,32 @@
       <c r="K116" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L116" s="2">
-        <v>15</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N116" s="2">
+      <c r="L116" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M116" s="2">
+        <v>15</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O116" s="2">
         <v>100</v>
       </c>
-      <c r="O116" t="s">
-        <v>9</v>
-      </c>
       <c r="P116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q116" t="s">
+        <v>10</v>
+      </c>
+      <c r="R116" t="s">
         <v>348</v>
       </c>
-      <c r="R116">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>57</v>
       </c>
@@ -9081,29 +9433,32 @@
       <c r="K117" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L117" s="2">
-        <v>15</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N117" s="2">
+      <c r="L117" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M117" s="2">
+        <v>15</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O117" s="2">
         <v>100</v>
       </c>
-      <c r="O117" t="s">
-        <v>9</v>
-      </c>
       <c r="P117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q117" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" t="s">
         <v>351</v>
       </c>
-      <c r="R117">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>57</v>
       </c>
@@ -9137,29 +9492,32 @@
       <c r="K118" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L118" s="2">
-        <v>15</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N118" s="2">
+      <c r="L118" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M118" s="2">
+        <v>15</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O118" s="2">
         <v>100</v>
       </c>
-      <c r="O118" t="s">
-        <v>9</v>
-      </c>
       <c r="P118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q118" t="s">
+        <v>10</v>
+      </c>
+      <c r="R118" t="s">
         <v>354</v>
       </c>
-      <c r="R118">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>57</v>
       </c>
@@ -9193,29 +9551,32 @@
       <c r="K119" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L119" s="2">
-        <v>15</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N119" s="2">
+      <c r="L119" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M119" s="2">
+        <v>15</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O119" s="2">
         <v>100</v>
       </c>
-      <c r="O119" t="s">
-        <v>9</v>
-      </c>
       <c r="P119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q119" t="s">
+        <v>10</v>
+      </c>
+      <c r="R119" t="s">
         <v>102</v>
       </c>
-      <c r="R119">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>57</v>
       </c>
@@ -9249,29 +9610,32 @@
       <c r="K120" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L120" s="2">
-        <v>15</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N120" s="2">
+      <c r="L120" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M120" s="2">
+        <v>15</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O120" s="2">
         <v>100</v>
       </c>
-      <c r="O120" t="s">
-        <v>9</v>
-      </c>
       <c r="P120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q120" t="s">
+        <v>10</v>
+      </c>
+      <c r="R120" t="s">
         <v>359</v>
       </c>
-      <c r="R120">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>57</v>
       </c>
@@ -9305,26 +9669,29 @@
       <c r="K121" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L121" s="2">
-        <v>15</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N121" s="2">
+      <c r="L121" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M121" s="2">
+        <v>15</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O121" s="2">
         <v>100</v>
       </c>
-      <c r="O121" t="s">
-        <v>9</v>
-      </c>
       <c r="P121" t="s">
-        <v>10</v>
-      </c>
-      <c r="R121">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>10</v>
+      </c>
+      <c r="S121">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>57</v>
       </c>
@@ -9358,29 +9725,32 @@
       <c r="K122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L122" s="2">
-        <v>15</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N122" s="2">
+      <c r="L122" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M122" s="2">
+        <v>15</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O122" s="2">
         <v>100</v>
       </c>
-      <c r="O122" t="s">
-        <v>9</v>
-      </c>
       <c r="P122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q122" t="s">
+        <v>10</v>
+      </c>
+      <c r="R122" t="s">
         <v>364</v>
       </c>
-      <c r="R122">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>57</v>
       </c>
@@ -9414,29 +9784,32 @@
       <c r="K123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L123" s="2">
-        <v>15</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N123" s="2">
+      <c r="L123" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M123" s="2">
+        <v>15</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O123" s="2">
         <v>100</v>
       </c>
-      <c r="O123" t="s">
-        <v>9</v>
-      </c>
       <c r="P123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q123" t="s">
+        <v>10</v>
+      </c>
+      <c r="R123" t="s">
         <v>102</v>
       </c>
-      <c r="R123">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>57</v>
       </c>
@@ -9470,26 +9843,29 @@
       <c r="K124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L124" s="2">
-        <v>15</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N124" s="2">
+      <c r="L124" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M124" s="2">
+        <v>15</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O124" s="2">
         <v>100</v>
       </c>
-      <c r="O124" t="s">
-        <v>9</v>
-      </c>
       <c r="P124" t="s">
-        <v>10</v>
-      </c>
-      <c r="R124">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>10</v>
+      </c>
+      <c r="S124">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>57</v>
       </c>
@@ -9523,29 +9899,32 @@
       <c r="K125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L125" s="2">
-        <v>15</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N125" s="2">
+      <c r="L125" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M125" s="2">
+        <v>15</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O125" s="2">
         <v>100</v>
       </c>
-      <c r="O125" t="s">
-        <v>9</v>
-      </c>
       <c r="P125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q125" t="s">
+        <v>10</v>
+      </c>
+      <c r="R125" t="s">
         <v>371</v>
       </c>
-      <c r="R125">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>57</v>
       </c>
@@ -9579,29 +9958,32 @@
       <c r="K126" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L126" s="2">
-        <v>15</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N126" s="2">
+      <c r="L126" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M126" s="2">
+        <v>15</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O126" s="2">
         <v>100</v>
       </c>
-      <c r="O126" t="s">
-        <v>9</v>
-      </c>
       <c r="P126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q126" t="s">
+        <v>10</v>
+      </c>
+      <c r="R126" t="s">
         <v>374</v>
       </c>
-      <c r="R126">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>57</v>
       </c>
@@ -9635,26 +10017,29 @@
       <c r="K127" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L127" s="2">
-        <v>15</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N127" s="2">
+      <c r="L127" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M127" s="2">
+        <v>15</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O127" s="2">
         <v>100</v>
       </c>
-      <c r="O127" t="s">
-        <v>9</v>
-      </c>
       <c r="P127" t="s">
-        <v>10</v>
-      </c>
-      <c r="R127">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>10</v>
+      </c>
+      <c r="S127">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>57</v>
       </c>
@@ -9688,29 +10073,32 @@
       <c r="K128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L128" s="2">
-        <v>15</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N128" s="2">
+      <c r="L128" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M128" s="2">
+        <v>15</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O128" s="2">
         <v>100</v>
       </c>
-      <c r="O128" t="s">
-        <v>9</v>
-      </c>
       <c r="P128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q128" t="s">
+        <v>10</v>
+      </c>
+      <c r="R128" t="s">
         <v>379</v>
       </c>
-      <c r="R128">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>57</v>
       </c>
@@ -9744,29 +10132,32 @@
       <c r="K129" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L129" s="2">
-        <v>15</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N129" s="2">
+      <c r="L129" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M129" s="2">
+        <v>15</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O129" s="2">
         <v>100</v>
       </c>
-      <c r="O129" t="s">
-        <v>9</v>
-      </c>
       <c r="P129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q129" t="s">
+        <v>10</v>
+      </c>
+      <c r="R129" t="s">
         <v>382</v>
       </c>
-      <c r="R129">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>57</v>
       </c>
@@ -9800,29 +10191,32 @@
       <c r="K130" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L130" s="2">
-        <v>15</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N130" s="2">
+      <c r="L130" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M130" s="2">
+        <v>15</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O130" s="2">
         <v>100</v>
       </c>
-      <c r="O130" t="s">
-        <v>9</v>
-      </c>
       <c r="P130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q130" t="s">
+        <v>10</v>
+      </c>
+      <c r="R130" t="s">
         <v>385</v>
       </c>
-      <c r="R130">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>57</v>
       </c>
@@ -9856,29 +10250,32 @@
       <c r="K131" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L131" s="2">
-        <v>15</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N131" s="2">
+      <c r="L131" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M131" s="2">
+        <v>15</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O131" s="2">
         <v>100</v>
       </c>
-      <c r="O131" t="s">
-        <v>9</v>
-      </c>
       <c r="P131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q131" t="s">
+        <v>10</v>
+      </c>
+      <c r="R131" t="s">
         <v>388</v>
       </c>
-      <c r="R131">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>57</v>
       </c>
@@ -9912,26 +10309,29 @@
       <c r="K132" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L132" s="2">
-        <v>15</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N132" s="2">
+      <c r="L132" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M132" s="2">
+        <v>15</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O132" s="2">
         <v>100</v>
       </c>
-      <c r="O132" t="s">
-        <v>9</v>
-      </c>
       <c r="P132" t="s">
-        <v>10</v>
-      </c>
-      <c r="R132">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>10</v>
+      </c>
+      <c r="S132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>57</v>
       </c>
@@ -9965,29 +10365,32 @@
       <c r="K133" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L133" s="2">
-        <v>15</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N133" s="2">
+      <c r="L133" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M133" s="2">
+        <v>15</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O133" s="2">
         <v>100</v>
       </c>
-      <c r="O133" t="s">
-        <v>9</v>
-      </c>
       <c r="P133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q133" t="s">
+        <v>10</v>
+      </c>
+      <c r="R133" t="s">
         <v>393</v>
       </c>
-      <c r="R133">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>57</v>
       </c>
@@ -10021,29 +10424,32 @@
       <c r="K134" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L134" s="2">
-        <v>15</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N134" s="2">
+      <c r="L134" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M134" s="2">
+        <v>15</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O134" s="2">
         <v>100</v>
       </c>
-      <c r="O134" t="s">
-        <v>9</v>
-      </c>
       <c r="P134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q134" t="s">
+        <v>10</v>
+      </c>
+      <c r="R134" t="s">
         <v>396</v>
       </c>
-      <c r="R134">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>57</v>
       </c>
@@ -10077,29 +10483,32 @@
       <c r="K135" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L135" s="2">
-        <v>15</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N135" s="2">
+      <c r="L135" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M135" s="2">
+        <v>15</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O135" s="2">
         <v>100</v>
       </c>
-      <c r="O135" t="s">
-        <v>9</v>
-      </c>
       <c r="P135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q135" t="s">
+        <v>10</v>
+      </c>
+      <c r="R135" t="s">
         <v>399</v>
       </c>
-      <c r="R135">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>57</v>
       </c>
@@ -10133,29 +10542,32 @@
       <c r="K136" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L136" s="2">
-        <v>15</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N136" s="2">
+      <c r="L136" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M136" s="2">
+        <v>15</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O136" s="2">
         <v>66.599999999999994</v>
       </c>
-      <c r="O136" t="s">
-        <v>9</v>
-      </c>
       <c r="P136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q136" t="s">
+        <v>10</v>
+      </c>
+      <c r="R136" t="s">
         <v>402</v>
       </c>
-      <c r="R136">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>57</v>
       </c>
@@ -10189,29 +10601,32 @@
       <c r="K137" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L137" s="2">
-        <v>15</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N137" s="2">
+      <c r="L137" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M137" s="2">
+        <v>15</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O137" s="2">
         <v>100</v>
       </c>
-      <c r="O137" t="s">
-        <v>9</v>
-      </c>
       <c r="P137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q137" t="s">
+        <v>10</v>
+      </c>
+      <c r="R137" t="s">
         <v>202</v>
       </c>
-      <c r="R137">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>57</v>
       </c>
@@ -10245,29 +10660,32 @@
       <c r="K138" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L138" s="2">
-        <v>15</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N138" s="2">
+      <c r="L138" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M138" s="2">
+        <v>15</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O138" s="2">
         <v>100</v>
       </c>
-      <c r="O138" t="s">
-        <v>9</v>
-      </c>
       <c r="P138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q138" t="s">
+        <v>10</v>
+      </c>
+      <c r="R138" t="s">
         <v>407</v>
       </c>
-      <c r="R138">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>57</v>
       </c>
@@ -10301,29 +10719,32 @@
       <c r="K139" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L139" s="2">
-        <v>15</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N139" s="2">
+      <c r="L139" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M139" s="2">
+        <v>15</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O139" s="2">
         <v>100</v>
       </c>
-      <c r="O139" t="s">
-        <v>9</v>
-      </c>
       <c r="P139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q139" t="s">
+        <v>10</v>
+      </c>
+      <c r="R139" t="s">
         <v>410</v>
       </c>
-      <c r="R139">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>57</v>
       </c>
@@ -10357,29 +10778,32 @@
       <c r="K140" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L140" s="2">
-        <v>15</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N140" s="2">
+      <c r="L140" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M140" s="2">
+        <v>15</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O140" s="2">
         <v>100</v>
       </c>
-      <c r="O140" t="s">
-        <v>9</v>
-      </c>
       <c r="P140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q140" t="s">
+        <v>10</v>
+      </c>
+      <c r="R140" t="s">
         <v>413</v>
       </c>
-      <c r="R140">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>57</v>
       </c>
@@ -10413,29 +10837,32 @@
       <c r="K141" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L141" s="2">
-        <v>15</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N141" s="2">
+      <c r="L141" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M141" s="2">
+        <v>15</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O141" s="2">
         <v>100</v>
       </c>
-      <c r="O141" t="s">
-        <v>9</v>
-      </c>
       <c r="P141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q141" t="s">
+        <v>10</v>
+      </c>
+      <c r="R141" t="s">
         <v>416</v>
       </c>
-      <c r="R141">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>57</v>
       </c>
@@ -10469,29 +10896,32 @@
       <c r="K142" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L142" s="2">
-        <v>15</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N142" s="2">
+      <c r="L142" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M142" s="2">
+        <v>15</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O142" s="2">
         <v>100</v>
       </c>
-      <c r="O142" t="s">
-        <v>9</v>
-      </c>
       <c r="P142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q142" t="s">
+        <v>10</v>
+      </c>
+      <c r="R142" t="s">
         <v>419</v>
       </c>
-      <c r="R142">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>57</v>
       </c>
@@ -10525,29 +10955,32 @@
       <c r="K143" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L143" s="2">
-        <v>15</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N143" s="2">
+      <c r="L143" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M143" s="2">
+        <v>15</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O143" s="2">
         <v>100</v>
       </c>
-      <c r="O143" t="s">
-        <v>9</v>
-      </c>
       <c r="P143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q143" t="s">
+        <v>10</v>
+      </c>
+      <c r="R143" t="s">
         <v>422</v>
       </c>
-      <c r="R143">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>57</v>
       </c>
@@ -10581,29 +11014,32 @@
       <c r="K144" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L144" s="2">
-        <v>15</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N144" s="2">
+      <c r="L144" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M144" s="2">
+        <v>15</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O144" s="2">
         <v>100</v>
       </c>
-      <c r="O144" t="s">
-        <v>9</v>
-      </c>
       <c r="P144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q144" t="s">
+        <v>10</v>
+      </c>
+      <c r="R144" t="s">
         <v>425</v>
       </c>
-      <c r="R144">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -10637,29 +11073,32 @@
       <c r="K145" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L145" s="2">
-        <v>15</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N145" s="2">
+      <c r="L145" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M145" s="2">
+        <v>15</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O145" s="2">
         <v>100</v>
       </c>
-      <c r="O145" t="s">
-        <v>9</v>
-      </c>
       <c r="P145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q145" t="s">
+        <v>10</v>
+      </c>
+      <c r="R145" t="s">
         <v>428</v>
       </c>
-      <c r="R145">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>57</v>
       </c>
@@ -10693,29 +11132,32 @@
       <c r="K146" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L146" s="2">
-        <v>15</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N146" s="2">
+      <c r="L146" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M146" s="2">
+        <v>15</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O146" s="2">
         <v>100</v>
       </c>
-      <c r="O146" t="s">
-        <v>9</v>
-      </c>
       <c r="P146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q146" t="s">
+        <v>10</v>
+      </c>
+      <c r="R146" t="s">
         <v>431</v>
       </c>
-      <c r="R146">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>57</v>
       </c>
@@ -10749,26 +11191,29 @@
       <c r="K147" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L147" s="2">
-        <v>15</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N147" s="2">
+      <c r="L147" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M147" s="2">
+        <v>15</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O147" s="2">
         <v>80</v>
       </c>
-      <c r="O147" t="s">
-        <v>9</v>
-      </c>
       <c r="P147" t="s">
-        <v>10</v>
-      </c>
-      <c r="R147">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>10</v>
+      </c>
+      <c r="S147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>57</v>
       </c>
@@ -10802,29 +11247,32 @@
       <c r="K148" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L148" s="2">
-        <v>15</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N148" s="2">
+      <c r="L148" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M148" s="2">
+        <v>15</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O148" s="2">
         <v>100</v>
       </c>
-      <c r="O148" t="s">
-        <v>9</v>
-      </c>
       <c r="P148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q148" t="s">
+        <v>10</v>
+      </c>
+      <c r="R148" t="s">
         <v>436</v>
       </c>
-      <c r="R148">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>57</v>
       </c>
@@ -10858,29 +11306,32 @@
       <c r="K149" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L149" s="2">
-        <v>15</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N149" s="2">
+      <c r="L149" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M149" s="2">
+        <v>15</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O149" s="2">
         <v>70</v>
       </c>
-      <c r="O149" t="s">
-        <v>9</v>
-      </c>
       <c r="P149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q149" t="s">
+        <v>10</v>
+      </c>
+      <c r="R149" t="s">
         <v>439</v>
       </c>
-      <c r="R149">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>57</v>
       </c>
@@ -10914,26 +11365,29 @@
       <c r="K150" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L150" s="2">
+      <c r="L150" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M150" s="2">
         <v>14</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="O150" t="s">
-        <v>9</v>
-      </c>
       <c r="P150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q150" t="s">
+        <v>10</v>
+      </c>
+      <c r="R150" t="s">
         <v>443</v>
       </c>
-      <c r="R150">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>57</v>
       </c>
@@ -10967,26 +11421,29 @@
       <c r="K151" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L151" s="2">
+      <c r="L151" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M151" s="2">
         <v>14</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="O151" t="s">
-        <v>9</v>
-      </c>
       <c r="P151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q151" t="s">
+        <v>10</v>
+      </c>
+      <c r="R151" t="s">
         <v>446</v>
       </c>
-      <c r="R151">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>57</v>
       </c>
@@ -11020,29 +11477,32 @@
       <c r="K152" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L152" s="2">
+      <c r="L152" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M152" s="2">
         <v>14</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N152" s="2">
+      <c r="O152" s="2">
         <v>60</v>
       </c>
-      <c r="O152" t="s">
-        <v>9</v>
-      </c>
       <c r="P152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q152" t="s">
+        <v>10</v>
+      </c>
+      <c r="R152" t="s">
         <v>449</v>
       </c>
-      <c r="R152">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>57</v>
       </c>
@@ -11076,29 +11536,32 @@
       <c r="K153" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L153" s="2">
+      <c r="L153" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M153" s="2">
         <v>14</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N153" s="2">
+      <c r="O153" s="2">
         <v>55</v>
       </c>
-      <c r="O153" t="s">
-        <v>9</v>
-      </c>
       <c r="P153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q153" t="s">
+        <v>10</v>
+      </c>
+      <c r="R153" t="s">
         <v>452</v>
       </c>
-      <c r="R153">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>57</v>
       </c>
@@ -11132,29 +11595,32 @@
       <c r="K154" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L154" s="2">
+      <c r="L154" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M154" s="2">
         <v>14</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="N154" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N154" s="2">
+      <c r="O154" s="2">
         <v>50</v>
       </c>
-      <c r="O154" t="s">
-        <v>9</v>
-      </c>
       <c r="P154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q154" t="s">
+        <v>10</v>
+      </c>
+      <c r="R154" t="s">
         <v>455</v>
       </c>
-      <c r="R154">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>57</v>
       </c>
@@ -11188,26 +11654,29 @@
       <c r="K155" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L155" s="2">
+      <c r="L155" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M155" s="2">
         <v>14</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="N155" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="O155" t="s">
-        <v>9</v>
-      </c>
       <c r="P155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q155" t="s">
+        <v>10</v>
+      </c>
+      <c r="R155" t="s">
         <v>458</v>
       </c>
-      <c r="R155">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>57</v>
       </c>
@@ -11241,29 +11710,32 @@
       <c r="K156" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L156" s="2">
+      <c r="L156" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M156" s="2">
         <v>14</v>
       </c>
-      <c r="M156" s="2" t="s">
+      <c r="N156" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N156" s="2">
+      <c r="O156" s="2">
         <v>25</v>
       </c>
-      <c r="O156" t="s">
-        <v>9</v>
-      </c>
       <c r="P156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q156" t="s">
+        <v>10</v>
+      </c>
+      <c r="R156" t="s">
         <v>461</v>
       </c>
-      <c r="R156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>57</v>
       </c>
@@ -11297,29 +11769,32 @@
       <c r="K157" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L157" s="2">
+      <c r="L157" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M157" s="2">
         <v>14</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="N157" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N157" s="2">
+      <c r="O157" s="2">
         <v>25</v>
       </c>
-      <c r="O157" t="s">
-        <v>9</v>
-      </c>
       <c r="P157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q157" t="s">
+        <v>10</v>
+      </c>
+      <c r="R157" t="s">
         <v>464</v>
       </c>
-      <c r="R157">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>57</v>
       </c>
@@ -11353,29 +11828,32 @@
       <c r="K158" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L158" s="2">
+      <c r="L158" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M158" s="2">
         <v>14</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="N158" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N158" s="2">
+      <c r="O158" s="2">
         <v>66</v>
       </c>
-      <c r="O158" t="s">
-        <v>9</v>
-      </c>
       <c r="P158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q158" t="s">
+        <v>10</v>
+      </c>
+      <c r="R158" t="s">
         <v>467</v>
       </c>
-      <c r="R158">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>57</v>
       </c>
@@ -11409,29 +11887,32 @@
       <c r="K159" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L159" s="2">
+      <c r="L159" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M159" s="2">
         <v>14</v>
       </c>
-      <c r="M159" s="2" t="s">
+      <c r="N159" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N159" s="2">
+      <c r="O159" s="2">
         <v>50</v>
       </c>
-      <c r="O159" t="s">
-        <v>9</v>
-      </c>
       <c r="P159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q159" t="s">
+        <v>10</v>
+      </c>
+      <c r="R159" t="s">
         <v>470</v>
       </c>
-      <c r="R159">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57</v>
       </c>
@@ -11465,29 +11946,32 @@
       <c r="K160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L160" s="2">
+      <c r="L160" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M160" s="2">
         <v>14</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="N160" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N160" s="2">
+      <c r="O160" s="2">
         <v>50</v>
       </c>
-      <c r="O160" t="s">
-        <v>9</v>
-      </c>
       <c r="P160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q160" t="s">
+        <v>10</v>
+      </c>
+      <c r="R160" t="s">
         <v>473</v>
       </c>
-      <c r="R160">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>57</v>
       </c>
@@ -11521,29 +12005,32 @@
       <c r="K161" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L161" s="2">
+      <c r="L161" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M161" s="2">
         <v>14</v>
       </c>
-      <c r="M161" s="2" t="s">
+      <c r="N161" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N161" s="2">
+      <c r="O161" s="2">
         <v>50</v>
       </c>
-      <c r="O161" t="s">
-        <v>9</v>
-      </c>
       <c r="P161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q161" t="s">
+        <v>10</v>
+      </c>
+      <c r="R161" t="s">
         <v>476</v>
       </c>
-      <c r="R161">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>57</v>
       </c>
@@ -11577,29 +12064,32 @@
       <c r="K162" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L162" s="2">
+      <c r="L162" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M162" s="2">
         <v>14</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N162" s="2">
+      <c r="O162" s="2">
         <v>50</v>
       </c>
-      <c r="O162" t="s">
-        <v>9</v>
-      </c>
       <c r="P162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q162" t="s">
+        <v>10</v>
+      </c>
+      <c r="R162" t="s">
         <v>479</v>
       </c>
-      <c r="R162">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>57</v>
       </c>
@@ -11633,29 +12123,32 @@
       <c r="K163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L163" s="2">
+      <c r="L163" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M163" s="2">
         <v>14</v>
       </c>
-      <c r="M163" s="2" t="s">
+      <c r="N163" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N163" s="2">
+      <c r="O163" s="2">
         <v>50</v>
       </c>
-      <c r="O163" t="s">
-        <v>9</v>
-      </c>
       <c r="P163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q163" t="s">
+        <v>10</v>
+      </c>
+      <c r="R163" t="s">
         <v>482</v>
       </c>
-      <c r="R163">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>57</v>
       </c>
@@ -11689,29 +12182,32 @@
       <c r="K164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L164" s="2">
+      <c r="L164" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M164" s="2">
         <v>14</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="N164" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N164" s="2">
+      <c r="O164" s="2">
         <v>60</v>
       </c>
-      <c r="O164" t="s">
-        <v>9</v>
-      </c>
       <c r="P164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q164" t="s">
+        <v>10</v>
+      </c>
+      <c r="R164" t="s">
         <v>485</v>
       </c>
-      <c r="R164">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>57</v>
       </c>
@@ -11745,29 +12241,32 @@
       <c r="K165" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L165" s="2">
+      <c r="L165" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M165" s="2">
         <v>14</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="N165" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N165" s="2">
+      <c r="O165" s="2">
         <v>60</v>
       </c>
-      <c r="O165" t="s">
-        <v>9</v>
-      </c>
       <c r="P165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q165" t="s">
+        <v>10</v>
+      </c>
+      <c r="R165" t="s">
         <v>488</v>
       </c>
-      <c r="R165">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>57</v>
       </c>
@@ -11801,29 +12300,32 @@
       <c r="K166" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L166" s="2">
+      <c r="L166" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M166" s="2">
         <v>14</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="N166" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N166" s="2">
+      <c r="O166" s="2">
         <v>60</v>
       </c>
-      <c r="O166" t="s">
-        <v>9</v>
-      </c>
       <c r="P166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q166" t="s">
+        <v>10</v>
+      </c>
+      <c r="R166" t="s">
         <v>491</v>
       </c>
-      <c r="R166">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>57</v>
       </c>
@@ -11857,29 +12359,32 @@
       <c r="K167" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L167" s="2">
+      <c r="L167" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M167" s="2">
         <v>14</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N167" s="2">
+      <c r="O167" s="2">
         <v>50</v>
       </c>
-      <c r="O167" t="s">
-        <v>9</v>
-      </c>
       <c r="P167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q167" t="s">
+        <v>10</v>
+      </c>
+      <c r="R167" t="s">
         <v>494</v>
       </c>
-      <c r="R167">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>57</v>
       </c>
@@ -11913,29 +12418,32 @@
       <c r="K168" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L168" s="2">
+      <c r="L168" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M168" s="2">
         <v>14</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N168" s="2">
+      <c r="O168" s="2">
         <v>65</v>
       </c>
-      <c r="O168" t="s">
-        <v>9</v>
-      </c>
       <c r="P168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q168" t="s">
+        <v>10</v>
+      </c>
+      <c r="R168" t="s">
         <v>497</v>
       </c>
-      <c r="R168">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>57</v>
       </c>
@@ -11969,29 +12477,32 @@
       <c r="K169" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L169" s="2">
+      <c r="L169" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M169" s="2">
         <v>14</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="N169" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N169" s="2">
+      <c r="O169" s="2">
         <v>65</v>
       </c>
-      <c r="O169" t="s">
-        <v>9</v>
-      </c>
       <c r="P169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q169" t="s">
+        <v>10</v>
+      </c>
+      <c r="R169" t="s">
         <v>497</v>
       </c>
-      <c r="R169">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>57</v>
       </c>
@@ -12025,29 +12536,32 @@
       <c r="K170" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L170" s="2">
+      <c r="L170" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M170" s="2">
         <v>14</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="N170" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N170" s="2">
+      <c r="O170" s="2">
         <v>65</v>
       </c>
-      <c r="O170" t="s">
-        <v>9</v>
-      </c>
       <c r="P170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q170" t="s">
+        <v>10</v>
+      </c>
+      <c r="R170" t="s">
         <v>497</v>
       </c>
-      <c r="R170">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>57</v>
       </c>
@@ -12081,29 +12595,32 @@
       <c r="K171" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L171" s="2">
+      <c r="L171" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M171" s="2">
         <v>14</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N171" s="2">
+      <c r="O171" s="2">
         <v>66</v>
       </c>
-      <c r="O171" t="s">
-        <v>9</v>
-      </c>
       <c r="P171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q171" t="s">
+        <v>10</v>
+      </c>
+      <c r="R171" t="s">
         <v>504</v>
       </c>
-      <c r="R171">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>57</v>
       </c>
@@ -12137,29 +12654,32 @@
       <c r="K172" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M172" s="2">
         <v>14</v>
       </c>
-      <c r="M172" s="2" t="s">
+      <c r="N172" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="N172" s="2">
+      <c r="O172" s="2">
         <v>50</v>
       </c>
-      <c r="O172" t="s">
-        <v>9</v>
-      </c>
       <c r="P172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q172" t="s">
+        <v>10</v>
+      </c>
+      <c r="R172" t="s">
         <v>507</v>
       </c>
-      <c r="R172">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>57</v>
       </c>
@@ -12193,26 +12713,29 @@
       <c r="K173" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M173" s="2">
         <v>35</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O173" t="s">
-        <v>9</v>
-      </c>
       <c r="P173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q173" t="s">
+        <v>10</v>
+      </c>
+      <c r="R173" t="s">
         <v>512</v>
       </c>
-      <c r="R173">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>57</v>
       </c>
@@ -12246,26 +12769,29 @@
       <c r="K174" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L174" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M174" s="2">
         <v>35</v>
       </c>
-      <c r="M174" s="2" t="s">
+      <c r="N174" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O174" t="s">
-        <v>9</v>
-      </c>
       <c r="P174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q174" t="s">
+        <v>10</v>
+      </c>
+      <c r="R174" t="s">
         <v>515</v>
       </c>
-      <c r="R174">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>57</v>
       </c>
@@ -12299,26 +12825,29 @@
       <c r="K175" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L175" s="2">
+      <c r="L175" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M175" s="2">
         <v>35</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O175" t="s">
-        <v>9</v>
-      </c>
       <c r="P175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q175" t="s">
+        <v>10</v>
+      </c>
+      <c r="R175" t="s">
         <v>518</v>
       </c>
-      <c r="R175">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>57</v>
       </c>
@@ -12352,26 +12881,29 @@
       <c r="K176" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="L176" s="2">
+      <c r="L176" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M176" s="2">
         <v>35</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O176" t="s">
-        <v>9</v>
-      </c>
       <c r="P176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q176" t="s">
+        <v>10</v>
+      </c>
+      <c r="R176" t="s">
         <v>521</v>
       </c>
-      <c r="R176">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>57</v>
       </c>
@@ -12405,23 +12937,26 @@
       <c r="K177" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L177" s="2">
+      <c r="L177" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M177" s="2">
         <v>35</v>
       </c>
-      <c r="M177" s="2" t="s">
+      <c r="N177" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O177" t="s">
-        <v>9</v>
-      </c>
       <c r="P177" t="s">
-        <v>10</v>
-      </c>
-      <c r="R177">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>10</v>
+      </c>
+      <c r="S177">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>57</v>
       </c>
@@ -12455,23 +12990,26 @@
       <c r="K178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L178" s="2">
+      <c r="L178" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M178" s="2">
         <v>35</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="N178" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O178" t="s">
-        <v>9</v>
-      </c>
       <c r="P178" t="s">
-        <v>10</v>
-      </c>
-      <c r="R178">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>10</v>
+      </c>
+      <c r="S178">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>57</v>
       </c>
@@ -12505,26 +13043,29 @@
       <c r="K179" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L179" s="2">
+      <c r="L179" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M179" s="2">
         <v>35</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="N179" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O179" t="s">
-        <v>9</v>
-      </c>
       <c r="P179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q179" t="s">
+        <v>10</v>
+      </c>
+      <c r="R179" t="s">
         <v>528</v>
       </c>
-      <c r="R179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>57</v>
       </c>
@@ -12558,26 +13099,29 @@
       <c r="K180" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L180" s="2">
+      <c r="L180" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M180" s="2">
         <v>35</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="N180" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O180" t="s">
-        <v>9</v>
-      </c>
       <c r="P180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q180" t="s">
+        <v>10</v>
+      </c>
+      <c r="R180" t="s">
         <v>531</v>
       </c>
-      <c r="R180">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>57</v>
       </c>
@@ -12611,26 +13155,29 @@
       <c r="K181" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L181" s="2">
+      <c r="L181" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M181" s="2">
         <v>35</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="N181" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O181" t="s">
-        <v>9</v>
-      </c>
       <c r="P181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q181" t="s">
+        <v>10</v>
+      </c>
+      <c r="R181" t="s">
         <v>534</v>
       </c>
-      <c r="R181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>57</v>
       </c>
@@ -12664,26 +13211,29 @@
       <c r="K182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L182" s="2">
+      <c r="L182" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M182" s="2">
         <v>35</v>
       </c>
-      <c r="M182" s="2" t="s">
+      <c r="N182" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O182" t="s">
-        <v>9</v>
-      </c>
       <c r="P182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q182" t="s">
+        <v>10</v>
+      </c>
+      <c r="R182" t="s">
         <v>537</v>
       </c>
-      <c r="R182">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>57</v>
       </c>
@@ -12717,26 +13267,29 @@
       <c r="K183" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L183" s="2">
+      <c r="L183" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M183" s="2">
         <v>35</v>
       </c>
-      <c r="M183" s="2" t="s">
+      <c r="N183" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="O183" t="s">
-        <v>9</v>
-      </c>
       <c r="P183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q183" t="s">
+        <v>10</v>
+      </c>
+      <c r="R183" t="s">
         <v>540</v>
       </c>
-      <c r="R183">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>57</v>
       </c>
@@ -12770,26 +13323,29 @@
       <c r="K184" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L184" s="2">
+      <c r="L184" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M184" s="2">
         <v>34</v>
       </c>
-      <c r="M184" s="2" t="s">
+      <c r="N184" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O184" t="s">
-        <v>9</v>
-      </c>
       <c r="P184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q184" t="s">
+        <v>10</v>
+      </c>
+      <c r="R184" t="s">
         <v>544</v>
       </c>
-      <c r="R184">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>57</v>
       </c>
@@ -12823,26 +13379,29 @@
       <c r="K185" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L185" s="2">
+      <c r="L185" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M185" s="2">
         <v>34</v>
       </c>
-      <c r="M185" s="2" t="s">
+      <c r="N185" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O185" t="s">
-        <v>9</v>
-      </c>
       <c r="P185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q185" t="s">
+        <v>10</v>
+      </c>
+      <c r="R185" t="s">
         <v>547</v>
       </c>
-      <c r="R185">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>57</v>
       </c>
@@ -12876,42 +13435,36 @@
       <c r="K186" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L186" s="2">
+      <c r="L186" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M186" s="2">
         <v>34</v>
       </c>
-      <c r="M186" s="2" t="s">
+      <c r="N186" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O186" t="s">
-        <v>9</v>
-      </c>
       <c r="P186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q186" t="s">
+        <v>10</v>
+      </c>
+      <c r="R186" t="s">
         <v>550</v>
       </c>
-      <c r="R186">
+      <c r="S186">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R186" xr:uid="{CFAF22AA-19BE-415B-B759-B3C65A3D44B9}"/>
+  <autoFilter ref="A1:S186" xr:uid="{CFAF22AA-19BE-415B-B759-B3C65A3D44B9}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -13134,6 +13687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13143,14 +13705,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850F5EA5-C41F-4C53-84CF-3F03E0DBF25B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CB9152-EA83-499D-8208-893EDCA8552F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13169,6 +13723,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850F5EA5-C41F-4C53-84CF-3F03E0DBF25B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F0E941-2A8A-483B-BA36-0B69E7ADE336}">
   <ds:schemaRefs>

--- a/source_data/Qual_4_data.xlsx
+++ b/source_data/Qual_4_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B3665-5E98-477E-8563-4C6E27DC7ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5405C-16E2-4821-891B-3809F97B933D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="4 - Percentage of wages paid du" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4 - Percentage of wages paid du'!$A$1:$S$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4 - Percentage of wages paid du'!$A$1:$W$186</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="574">
   <si>
     <t>ISO3</t>
   </si>
@@ -1731,6 +1731,30 @@
   </si>
   <si>
     <t>TIME_PERIOD</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>NATURE_DESC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Country Data</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -2585,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S186"/>
+  <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="M169" workbookViewId="0">
+      <selection activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,11 +2632,15 @@
     <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>557</v>
       </c>
@@ -2665,13 +2693,25 @@
         <v>551</v>
       </c>
       <c r="R1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S1" t="s">
+        <v>567</v>
+      </c>
+      <c r="T1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" t="s">
+        <v>571</v>
+      </c>
+      <c r="V1" t="s">
         <v>559</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57</v>
       </c>
@@ -2724,13 +2764,25 @@
         <v>10</v>
       </c>
       <c r="R2" t="s">
+        <v>568</v>
+      </c>
+      <c r="S2" t="s">
+        <v>569</v>
+      </c>
+      <c r="T2" t="s">
+        <v>572</v>
+      </c>
+      <c r="U2" t="s">
+        <v>573</v>
+      </c>
+      <c r="V2" t="s">
         <v>11</v>
       </c>
-      <c r="S2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>57</v>
       </c>
@@ -2783,13 +2835,25 @@
         <v>10</v>
       </c>
       <c r="R3" t="s">
+        <v>568</v>
+      </c>
+      <c r="S3" t="s">
+        <v>569</v>
+      </c>
+      <c r="T3" t="s">
+        <v>572</v>
+      </c>
+      <c r="U3" t="s">
+        <v>573</v>
+      </c>
+      <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="S3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>57</v>
       </c>
@@ -2839,13 +2903,25 @@
         <v>10</v>
       </c>
       <c r="R4" t="s">
+        <v>568</v>
+      </c>
+      <c r="S4" t="s">
+        <v>569</v>
+      </c>
+      <c r="T4" t="s">
+        <v>572</v>
+      </c>
+      <c r="U4" t="s">
+        <v>573</v>
+      </c>
+      <c r="V4" t="s">
         <v>17</v>
       </c>
-      <c r="S4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>57</v>
       </c>
@@ -2898,13 +2974,25 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
+        <v>568</v>
+      </c>
+      <c r="S5" t="s">
+        <v>569</v>
+      </c>
+      <c r="T5" t="s">
+        <v>572</v>
+      </c>
+      <c r="U5" t="s">
+        <v>573</v>
+      </c>
+      <c r="V5" t="s">
         <v>20</v>
       </c>
-      <c r="S5">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>57</v>
       </c>
@@ -2957,13 +3045,25 @@
         <v>10</v>
       </c>
       <c r="R6" t="s">
+        <v>568</v>
+      </c>
+      <c r="S6" t="s">
+        <v>569</v>
+      </c>
+      <c r="T6" t="s">
+        <v>572</v>
+      </c>
+      <c r="U6" t="s">
+        <v>573</v>
+      </c>
+      <c r="V6" t="s">
         <v>23</v>
       </c>
-      <c r="S6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>57</v>
       </c>
@@ -3016,13 +3116,25 @@
         <v>10</v>
       </c>
       <c r="R7" t="s">
+        <v>568</v>
+      </c>
+      <c r="S7" t="s">
+        <v>569</v>
+      </c>
+      <c r="T7" t="s">
+        <v>572</v>
+      </c>
+      <c r="U7" t="s">
+        <v>573</v>
+      </c>
+      <c r="V7" t="s">
         <v>26</v>
       </c>
-      <c r="S7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>57</v>
       </c>
@@ -3075,13 +3187,25 @@
         <v>10</v>
       </c>
       <c r="R8" t="s">
+        <v>568</v>
+      </c>
+      <c r="S8" t="s">
+        <v>569</v>
+      </c>
+      <c r="T8" t="s">
+        <v>572</v>
+      </c>
+      <c r="U8" t="s">
+        <v>573</v>
+      </c>
+      <c r="V8" t="s">
         <v>29</v>
       </c>
-      <c r="S8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
@@ -3133,11 +3257,23 @@
       <c r="Q9" t="s">
         <v>10</v>
       </c>
-      <c r="S9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>568</v>
+      </c>
+      <c r="S9" t="s">
+        <v>569</v>
+      </c>
+      <c r="T9" t="s">
+        <v>572</v>
+      </c>
+      <c r="U9" t="s">
+        <v>573</v>
+      </c>
+      <c r="W9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>57</v>
       </c>
@@ -3190,13 +3326,25 @@
         <v>10</v>
       </c>
       <c r="R10" t="s">
+        <v>568</v>
+      </c>
+      <c r="S10" t="s">
+        <v>569</v>
+      </c>
+      <c r="T10" t="s">
+        <v>572</v>
+      </c>
+      <c r="U10" t="s">
+        <v>573</v>
+      </c>
+      <c r="V10" t="s">
         <v>35</v>
       </c>
-      <c r="S10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57</v>
       </c>
@@ -3246,13 +3394,25 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
+        <v>568</v>
+      </c>
+      <c r="S11" t="s">
+        <v>569</v>
+      </c>
+      <c r="T11" t="s">
+        <v>572</v>
+      </c>
+      <c r="U11" t="s">
+        <v>573</v>
+      </c>
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="S11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>57</v>
       </c>
@@ -3305,13 +3465,25 @@
         <v>10</v>
       </c>
       <c r="R12" t="s">
+        <v>568</v>
+      </c>
+      <c r="S12" t="s">
+        <v>569</v>
+      </c>
+      <c r="T12" t="s">
+        <v>572</v>
+      </c>
+      <c r="U12" t="s">
+        <v>573</v>
+      </c>
+      <c r="V12" t="s">
         <v>41</v>
       </c>
-      <c r="S12">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>57</v>
       </c>
@@ -3364,13 +3536,25 @@
         <v>10</v>
       </c>
       <c r="R13" t="s">
+        <v>568</v>
+      </c>
+      <c r="S13" t="s">
+        <v>569</v>
+      </c>
+      <c r="T13" t="s">
+        <v>572</v>
+      </c>
+      <c r="U13" t="s">
+        <v>573</v>
+      </c>
+      <c r="V13" t="s">
         <v>44</v>
       </c>
-      <c r="S13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -3420,13 +3604,25 @@
         <v>10</v>
       </c>
       <c r="R14" t="s">
+        <v>568</v>
+      </c>
+      <c r="S14" t="s">
+        <v>569</v>
+      </c>
+      <c r="T14" t="s">
+        <v>572</v>
+      </c>
+      <c r="U14" t="s">
+        <v>573</v>
+      </c>
+      <c r="V14" t="s">
         <v>47</v>
       </c>
-      <c r="S14">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -3479,13 +3675,25 @@
         <v>10</v>
       </c>
       <c r="R15" t="s">
+        <v>568</v>
+      </c>
+      <c r="S15" t="s">
+        <v>569</v>
+      </c>
+      <c r="T15" t="s">
+        <v>572</v>
+      </c>
+      <c r="U15" t="s">
+        <v>573</v>
+      </c>
+      <c r="V15" t="s">
         <v>51</v>
       </c>
-      <c r="S15">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>57</v>
       </c>
@@ -3538,13 +3746,25 @@
         <v>10</v>
       </c>
       <c r="R16" t="s">
+        <v>568</v>
+      </c>
+      <c r="S16" t="s">
+        <v>569</v>
+      </c>
+      <c r="T16" t="s">
+        <v>572</v>
+      </c>
+      <c r="U16" t="s">
+        <v>573</v>
+      </c>
+      <c r="V16" t="s">
         <v>54</v>
       </c>
-      <c r="S16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57</v>
       </c>
@@ -3597,13 +3817,25 @@
         <v>10</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="S17" t="s">
+        <v>569</v>
+      </c>
+      <c r="T17" t="s">
+        <v>572</v>
+      </c>
+      <c r="U17" t="s">
+        <v>573</v>
+      </c>
+      <c r="V17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>57</v>
       </c>
@@ -3656,13 +3888,25 @@
         <v>10</v>
       </c>
       <c r="R18" t="s">
+        <v>568</v>
+      </c>
+      <c r="S18" t="s">
+        <v>569</v>
+      </c>
+      <c r="T18" t="s">
+        <v>572</v>
+      </c>
+      <c r="U18" t="s">
+        <v>573</v>
+      </c>
+      <c r="V18" t="s">
         <v>60</v>
       </c>
-      <c r="S18">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57</v>
       </c>
@@ -3715,13 +3959,25 @@
         <v>10</v>
       </c>
       <c r="R19" t="s">
+        <v>568</v>
+      </c>
+      <c r="S19" t="s">
+        <v>569</v>
+      </c>
+      <c r="T19" t="s">
+        <v>572</v>
+      </c>
+      <c r="U19" t="s">
+        <v>573</v>
+      </c>
+      <c r="V19" t="s">
         <v>63</v>
       </c>
-      <c r="S19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -3774,13 +4030,25 @@
         <v>10</v>
       </c>
       <c r="R20" t="s">
+        <v>568</v>
+      </c>
+      <c r="S20" t="s">
+        <v>569</v>
+      </c>
+      <c r="T20" t="s">
+        <v>572</v>
+      </c>
+      <c r="U20" t="s">
+        <v>573</v>
+      </c>
+      <c r="V20" t="s">
         <v>66</v>
       </c>
-      <c r="S20">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
@@ -3830,13 +4098,25 @@
         <v>10</v>
       </c>
       <c r="R21" t="s">
+        <v>568</v>
+      </c>
+      <c r="S21" t="s">
+        <v>569</v>
+      </c>
+      <c r="T21" t="s">
+        <v>572</v>
+      </c>
+      <c r="U21" t="s">
+        <v>573</v>
+      </c>
+      <c r="V21" t="s">
         <v>69</v>
       </c>
-      <c r="S21">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>57</v>
       </c>
@@ -3889,13 +4169,25 @@
         <v>10</v>
       </c>
       <c r="R22" t="s">
+        <v>568</v>
+      </c>
+      <c r="S22" t="s">
+        <v>569</v>
+      </c>
+      <c r="T22" t="s">
+        <v>572</v>
+      </c>
+      <c r="U22" t="s">
+        <v>573</v>
+      </c>
+      <c r="V22" t="s">
         <v>72</v>
       </c>
-      <c r="S22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>57</v>
       </c>
@@ -3948,13 +4240,25 @@
         <v>10</v>
       </c>
       <c r="R23" t="s">
+        <v>568</v>
+      </c>
+      <c r="S23" t="s">
+        <v>569</v>
+      </c>
+      <c r="T23" t="s">
+        <v>572</v>
+      </c>
+      <c r="U23" t="s">
+        <v>573</v>
+      </c>
+      <c r="V23" t="s">
         <v>75</v>
       </c>
-      <c r="S23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>57</v>
       </c>
@@ -4007,13 +4311,25 @@
         <v>10</v>
       </c>
       <c r="R24" t="s">
+        <v>568</v>
+      </c>
+      <c r="S24" t="s">
+        <v>569</v>
+      </c>
+      <c r="T24" t="s">
+        <v>572</v>
+      </c>
+      <c r="U24" t="s">
+        <v>573</v>
+      </c>
+      <c r="V24" t="s">
         <v>78</v>
       </c>
-      <c r="S24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>57</v>
       </c>
@@ -4066,13 +4382,25 @@
         <v>10</v>
       </c>
       <c r="R25" t="s">
+        <v>568</v>
+      </c>
+      <c r="S25" t="s">
+        <v>569</v>
+      </c>
+      <c r="T25" t="s">
+        <v>572</v>
+      </c>
+      <c r="U25" t="s">
+        <v>573</v>
+      </c>
+      <c r="V25" t="s">
         <v>81</v>
       </c>
-      <c r="S25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>57</v>
       </c>
@@ -4125,13 +4453,25 @@
         <v>10</v>
       </c>
       <c r="R26" t="s">
+        <v>568</v>
+      </c>
+      <c r="S26" t="s">
+        <v>569</v>
+      </c>
+      <c r="T26" t="s">
+        <v>572</v>
+      </c>
+      <c r="U26" t="s">
+        <v>573</v>
+      </c>
+      <c r="V26" t="s">
         <v>85</v>
       </c>
-      <c r="S26">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>57</v>
       </c>
@@ -4184,13 +4524,25 @@
         <v>10</v>
       </c>
       <c r="R27" t="s">
+        <v>568</v>
+      </c>
+      <c r="S27" t="s">
+        <v>569</v>
+      </c>
+      <c r="T27" t="s">
+        <v>572</v>
+      </c>
+      <c r="U27" t="s">
+        <v>573</v>
+      </c>
+      <c r="V27" t="s">
         <v>88</v>
       </c>
-      <c r="S27">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>57</v>
       </c>
@@ -4243,13 +4595,25 @@
         <v>10</v>
       </c>
       <c r="R28" t="s">
+        <v>568</v>
+      </c>
+      <c r="S28" t="s">
+        <v>569</v>
+      </c>
+      <c r="T28" t="s">
+        <v>572</v>
+      </c>
+      <c r="U28" t="s">
+        <v>573</v>
+      </c>
+      <c r="V28" t="s">
         <v>91</v>
       </c>
-      <c r="S28">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>57</v>
       </c>
@@ -4302,13 +4666,25 @@
         <v>10</v>
       </c>
       <c r="R29" t="s">
+        <v>568</v>
+      </c>
+      <c r="S29" t="s">
+        <v>569</v>
+      </c>
+      <c r="T29" t="s">
+        <v>572</v>
+      </c>
+      <c r="U29" t="s">
+        <v>573</v>
+      </c>
+      <c r="V29" t="s">
         <v>94</v>
       </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>57</v>
       </c>
@@ -4361,13 +4737,25 @@
         <v>10</v>
       </c>
       <c r="R30" t="s">
+        <v>568</v>
+      </c>
+      <c r="S30" t="s">
+        <v>569</v>
+      </c>
+      <c r="T30" t="s">
+        <v>572</v>
+      </c>
+      <c r="U30" t="s">
+        <v>573</v>
+      </c>
+      <c r="V30" t="s">
         <v>97</v>
       </c>
-      <c r="S30">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -4416,11 +4804,23 @@
       <c r="Q31" t="s">
         <v>10</v>
       </c>
-      <c r="S31">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>568</v>
+      </c>
+      <c r="S31" t="s">
+        <v>569</v>
+      </c>
+      <c r="T31" t="s">
+        <v>572</v>
+      </c>
+      <c r="U31" t="s">
+        <v>573</v>
+      </c>
+      <c r="W31">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57</v>
       </c>
@@ -4473,13 +4873,25 @@
         <v>10</v>
       </c>
       <c r="R32" t="s">
+        <v>568</v>
+      </c>
+      <c r="S32" t="s">
+        <v>569</v>
+      </c>
+      <c r="T32" t="s">
+        <v>572</v>
+      </c>
+      <c r="U32" t="s">
+        <v>573</v>
+      </c>
+      <c r="V32" t="s">
         <v>102</v>
       </c>
-      <c r="S32">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>57</v>
       </c>
@@ -4531,11 +4943,23 @@
       <c r="Q33" t="s">
         <v>10</v>
       </c>
-      <c r="S33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>568</v>
+      </c>
+      <c r="S33" t="s">
+        <v>569</v>
+      </c>
+      <c r="T33" t="s">
+        <v>572</v>
+      </c>
+      <c r="U33" t="s">
+        <v>573</v>
+      </c>
+      <c r="W33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>57</v>
       </c>
@@ -4588,13 +5012,25 @@
         <v>10</v>
       </c>
       <c r="R34" t="s">
+        <v>568</v>
+      </c>
+      <c r="S34" t="s">
+        <v>569</v>
+      </c>
+      <c r="T34" t="s">
+        <v>572</v>
+      </c>
+      <c r="U34" t="s">
+        <v>573</v>
+      </c>
+      <c r="V34" t="s">
         <v>107</v>
       </c>
-      <c r="S34">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>57</v>
       </c>
@@ -4644,13 +5080,25 @@
         <v>10</v>
       </c>
       <c r="R35" t="s">
+        <v>568</v>
+      </c>
+      <c r="S35" t="s">
+        <v>569</v>
+      </c>
+      <c r="T35" t="s">
+        <v>572</v>
+      </c>
+      <c r="U35" t="s">
+        <v>573</v>
+      </c>
+      <c r="V35" t="s">
         <v>110</v>
       </c>
-      <c r="S35">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57</v>
       </c>
@@ -4703,13 +5151,25 @@
         <v>10</v>
       </c>
       <c r="R36" t="s">
+        <v>568</v>
+      </c>
+      <c r="S36" t="s">
+        <v>569</v>
+      </c>
+      <c r="T36" t="s">
+        <v>572</v>
+      </c>
+      <c r="U36" t="s">
+        <v>573</v>
+      </c>
+      <c r="V36" t="s">
         <v>113</v>
       </c>
-      <c r="S36">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>57</v>
       </c>
@@ -4762,13 +5222,25 @@
         <v>10</v>
       </c>
       <c r="R37" t="s">
+        <v>568</v>
+      </c>
+      <c r="S37" t="s">
+        <v>569</v>
+      </c>
+      <c r="T37" t="s">
+        <v>572</v>
+      </c>
+      <c r="U37" t="s">
+        <v>573</v>
+      </c>
+      <c r="V37" t="s">
         <v>116</v>
       </c>
-      <c r="S37">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>57</v>
       </c>
@@ -4821,13 +5293,25 @@
         <v>10</v>
       </c>
       <c r="R38" t="s">
+        <v>568</v>
+      </c>
+      <c r="S38" t="s">
+        <v>569</v>
+      </c>
+      <c r="T38" t="s">
+        <v>572</v>
+      </c>
+      <c r="U38" t="s">
+        <v>573</v>
+      </c>
+      <c r="V38" t="s">
         <v>119</v>
       </c>
-      <c r="S38">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>57</v>
       </c>
@@ -4880,13 +5364,25 @@
         <v>10</v>
       </c>
       <c r="R39" t="s">
+        <v>568</v>
+      </c>
+      <c r="S39" t="s">
+        <v>569</v>
+      </c>
+      <c r="T39" t="s">
+        <v>572</v>
+      </c>
+      <c r="U39" t="s">
+        <v>573</v>
+      </c>
+      <c r="V39" t="s">
         <v>122</v>
       </c>
-      <c r="S39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57</v>
       </c>
@@ -4939,13 +5435,25 @@
         <v>10</v>
       </c>
       <c r="R40" t="s">
+        <v>568</v>
+      </c>
+      <c r="S40" t="s">
+        <v>569</v>
+      </c>
+      <c r="T40" t="s">
+        <v>572</v>
+      </c>
+      <c r="U40" t="s">
+        <v>573</v>
+      </c>
+      <c r="V40" t="s">
         <v>125</v>
       </c>
-      <c r="S40">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>57</v>
       </c>
@@ -4995,13 +5503,25 @@
         <v>10</v>
       </c>
       <c r="R41" t="s">
+        <v>568</v>
+      </c>
+      <c r="S41" t="s">
+        <v>569</v>
+      </c>
+      <c r="T41" t="s">
+        <v>572</v>
+      </c>
+      <c r="U41" t="s">
+        <v>573</v>
+      </c>
+      <c r="V41" t="s">
         <v>128</v>
       </c>
-      <c r="S41">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>57</v>
       </c>
@@ -5054,13 +5574,25 @@
         <v>10</v>
       </c>
       <c r="R42" t="s">
+        <v>568</v>
+      </c>
+      <c r="S42" t="s">
+        <v>569</v>
+      </c>
+      <c r="T42" t="s">
+        <v>572</v>
+      </c>
+      <c r="U42" t="s">
+        <v>573</v>
+      </c>
+      <c r="V42" t="s">
         <v>131</v>
       </c>
-      <c r="S42">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -5113,13 +5645,25 @@
         <v>10</v>
       </c>
       <c r="R43" t="s">
+        <v>568</v>
+      </c>
+      <c r="S43" t="s">
+        <v>569</v>
+      </c>
+      <c r="T43" t="s">
+        <v>572</v>
+      </c>
+      <c r="U43" t="s">
+        <v>573</v>
+      </c>
+      <c r="V43" t="s">
         <v>134</v>
       </c>
-      <c r="S43">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57</v>
       </c>
@@ -5172,13 +5716,25 @@
         <v>10</v>
       </c>
       <c r="R44" t="s">
+        <v>568</v>
+      </c>
+      <c r="S44" t="s">
+        <v>569</v>
+      </c>
+      <c r="T44" t="s">
+        <v>572</v>
+      </c>
+      <c r="U44" t="s">
+        <v>573</v>
+      </c>
+      <c r="V44" t="s">
         <v>137</v>
       </c>
-      <c r="S44">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>57</v>
       </c>
@@ -5231,13 +5787,25 @@
         <v>10</v>
       </c>
       <c r="R45" t="s">
+        <v>568</v>
+      </c>
+      <c r="S45" t="s">
+        <v>569</v>
+      </c>
+      <c r="T45" t="s">
+        <v>572</v>
+      </c>
+      <c r="U45" t="s">
+        <v>573</v>
+      </c>
+      <c r="V45" t="s">
         <v>140</v>
       </c>
-      <c r="S45">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -5290,13 +5858,25 @@
         <v>10</v>
       </c>
       <c r="R46" t="s">
+        <v>568</v>
+      </c>
+      <c r="S46" t="s">
+        <v>569</v>
+      </c>
+      <c r="T46" t="s">
+        <v>572</v>
+      </c>
+      <c r="U46" t="s">
+        <v>573</v>
+      </c>
+      <c r="V46" t="s">
         <v>125</v>
       </c>
-      <c r="S46">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57</v>
       </c>
@@ -5348,11 +5928,23 @@
       <c r="Q47" t="s">
         <v>10</v>
       </c>
-      <c r="S47">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>568</v>
+      </c>
+      <c r="S47" t="s">
+        <v>569</v>
+      </c>
+      <c r="T47" t="s">
+        <v>572</v>
+      </c>
+      <c r="U47" t="s">
+        <v>573</v>
+      </c>
+      <c r="W47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -5402,13 +5994,25 @@
         <v>10</v>
       </c>
       <c r="R48" t="s">
+        <v>568</v>
+      </c>
+      <c r="S48" t="s">
+        <v>569</v>
+      </c>
+      <c r="T48" t="s">
+        <v>572</v>
+      </c>
+      <c r="U48" t="s">
+        <v>573</v>
+      </c>
+      <c r="V48" t="s">
         <v>147</v>
       </c>
-      <c r="S48">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>57</v>
       </c>
@@ -5460,11 +6064,23 @@
       <c r="Q49" t="s">
         <v>10</v>
       </c>
-      <c r="S49">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>568</v>
+      </c>
+      <c r="S49" t="s">
+        <v>569</v>
+      </c>
+      <c r="T49" t="s">
+        <v>572</v>
+      </c>
+      <c r="U49" t="s">
+        <v>573</v>
+      </c>
+      <c r="W49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>57</v>
       </c>
@@ -5517,13 +6133,25 @@
         <v>10</v>
       </c>
       <c r="R50" t="s">
+        <v>568</v>
+      </c>
+      <c r="S50" t="s">
+        <v>569</v>
+      </c>
+      <c r="T50" t="s">
+        <v>572</v>
+      </c>
+      <c r="U50" t="s">
+        <v>573</v>
+      </c>
+      <c r="V50" t="s">
         <v>152</v>
       </c>
-      <c r="S50">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>57</v>
       </c>
@@ -5576,13 +6204,25 @@
         <v>10</v>
       </c>
       <c r="R51" t="s">
+        <v>568</v>
+      </c>
+      <c r="S51" t="s">
+        <v>569</v>
+      </c>
+      <c r="T51" t="s">
+        <v>572</v>
+      </c>
+      <c r="U51" t="s">
+        <v>573</v>
+      </c>
+      <c r="V51" t="s">
         <v>155</v>
       </c>
-      <c r="S51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5635,13 +6275,25 @@
         <v>10</v>
       </c>
       <c r="R52" t="s">
+        <v>568</v>
+      </c>
+      <c r="S52" t="s">
+        <v>569</v>
+      </c>
+      <c r="T52" t="s">
+        <v>572</v>
+      </c>
+      <c r="U52" t="s">
+        <v>573</v>
+      </c>
+      <c r="V52" t="s">
         <v>158</v>
       </c>
-      <c r="S52">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
@@ -5694,13 +6346,25 @@
         <v>10</v>
       </c>
       <c r="R53" t="s">
+        <v>568</v>
+      </c>
+      <c r="S53" t="s">
+        <v>569</v>
+      </c>
+      <c r="T53" t="s">
+        <v>572</v>
+      </c>
+      <c r="U53" t="s">
+        <v>573</v>
+      </c>
+      <c r="V53" t="s">
         <v>162</v>
       </c>
-      <c r="S53">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -5753,13 +6417,25 @@
         <v>10</v>
       </c>
       <c r="R54" t="s">
+        <v>568</v>
+      </c>
+      <c r="S54" t="s">
+        <v>569</v>
+      </c>
+      <c r="T54" t="s">
+        <v>572</v>
+      </c>
+      <c r="U54" t="s">
+        <v>573</v>
+      </c>
+      <c r="V54" t="s">
         <v>166</v>
       </c>
-      <c r="S54">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
@@ -5812,13 +6488,25 @@
         <v>10</v>
       </c>
       <c r="R55" t="s">
+        <v>568</v>
+      </c>
+      <c r="S55" t="s">
+        <v>569</v>
+      </c>
+      <c r="T55" t="s">
+        <v>572</v>
+      </c>
+      <c r="U55" t="s">
+        <v>573</v>
+      </c>
+      <c r="V55" t="s">
         <v>169</v>
       </c>
-      <c r="S55">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
@@ -5871,13 +6559,25 @@
         <v>10</v>
       </c>
       <c r="R56" t="s">
+        <v>568</v>
+      </c>
+      <c r="S56" t="s">
+        <v>569</v>
+      </c>
+      <c r="T56" t="s">
+        <v>572</v>
+      </c>
+      <c r="U56" t="s">
+        <v>573</v>
+      </c>
+      <c r="V56" t="s">
         <v>172</v>
       </c>
-      <c r="S56">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5930,13 +6630,25 @@
         <v>10</v>
       </c>
       <c r="R57" t="s">
+        <v>568</v>
+      </c>
+      <c r="S57" t="s">
+        <v>569</v>
+      </c>
+      <c r="T57" t="s">
+        <v>572</v>
+      </c>
+      <c r="U57" t="s">
+        <v>573</v>
+      </c>
+      <c r="V57" t="s">
         <v>175</v>
       </c>
-      <c r="S57">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5989,13 +6701,25 @@
         <v>10</v>
       </c>
       <c r="R58" t="s">
+        <v>568</v>
+      </c>
+      <c r="S58" t="s">
+        <v>569</v>
+      </c>
+      <c r="T58" t="s">
+        <v>572</v>
+      </c>
+      <c r="U58" t="s">
+        <v>573</v>
+      </c>
+      <c r="V58" t="s">
         <v>178</v>
       </c>
-      <c r="S58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6048,13 +6772,25 @@
         <v>10</v>
       </c>
       <c r="R59" t="s">
+        <v>568</v>
+      </c>
+      <c r="S59" t="s">
+        <v>569</v>
+      </c>
+      <c r="T59" t="s">
+        <v>572</v>
+      </c>
+      <c r="U59" t="s">
+        <v>573</v>
+      </c>
+      <c r="V59" t="s">
         <v>181</v>
       </c>
-      <c r="S59">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -6107,13 +6843,25 @@
         <v>10</v>
       </c>
       <c r="R60" t="s">
+        <v>568</v>
+      </c>
+      <c r="S60" t="s">
+        <v>569</v>
+      </c>
+      <c r="T60" t="s">
+        <v>572</v>
+      </c>
+      <c r="U60" t="s">
+        <v>573</v>
+      </c>
+      <c r="V60" t="s">
         <v>184</v>
       </c>
-      <c r="S60">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -6166,13 +6914,25 @@
         <v>10</v>
       </c>
       <c r="R61" t="s">
+        <v>568</v>
+      </c>
+      <c r="S61" t="s">
+        <v>569</v>
+      </c>
+      <c r="T61" t="s">
+        <v>572</v>
+      </c>
+      <c r="U61" t="s">
+        <v>573</v>
+      </c>
+      <c r="V61" t="s">
         <v>187</v>
       </c>
-      <c r="S61">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>57</v>
       </c>
@@ -6225,13 +6985,25 @@
         <v>10</v>
       </c>
       <c r="R62" t="s">
+        <v>568</v>
+      </c>
+      <c r="S62" t="s">
+        <v>569</v>
+      </c>
+      <c r="T62" t="s">
+        <v>572</v>
+      </c>
+      <c r="U62" t="s">
+        <v>573</v>
+      </c>
+      <c r="V62" t="s">
         <v>190</v>
       </c>
-      <c r="S62">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>57</v>
       </c>
@@ -6284,13 +7056,25 @@
         <v>10</v>
       </c>
       <c r="R63" t="s">
+        <v>568</v>
+      </c>
+      <c r="S63" t="s">
+        <v>569</v>
+      </c>
+      <c r="T63" t="s">
+        <v>572</v>
+      </c>
+      <c r="U63" t="s">
+        <v>573</v>
+      </c>
+      <c r="V63" t="s">
         <v>193</v>
       </c>
-      <c r="S63">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
@@ -6343,13 +7127,25 @@
         <v>10</v>
       </c>
       <c r="R64" t="s">
+        <v>568</v>
+      </c>
+      <c r="S64" t="s">
+        <v>569</v>
+      </c>
+      <c r="T64" t="s">
+        <v>572</v>
+      </c>
+      <c r="U64" t="s">
+        <v>573</v>
+      </c>
+      <c r="V64" t="s">
         <v>196</v>
       </c>
-      <c r="S64">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>57</v>
       </c>
@@ -6402,13 +7198,25 @@
         <v>10</v>
       </c>
       <c r="R65" t="s">
+        <v>568</v>
+      </c>
+      <c r="S65" t="s">
+        <v>569</v>
+      </c>
+      <c r="T65" t="s">
+        <v>572</v>
+      </c>
+      <c r="U65" t="s">
+        <v>573</v>
+      </c>
+      <c r="V65" t="s">
         <v>199</v>
       </c>
-      <c r="S65">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>57</v>
       </c>
@@ -6461,13 +7269,25 @@
         <v>10</v>
       </c>
       <c r="R66" t="s">
+        <v>568</v>
+      </c>
+      <c r="S66" t="s">
+        <v>569</v>
+      </c>
+      <c r="T66" t="s">
+        <v>572</v>
+      </c>
+      <c r="U66" t="s">
+        <v>573</v>
+      </c>
+      <c r="V66" t="s">
         <v>202</v>
       </c>
-      <c r="S66">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -6520,13 +7340,25 @@
         <v>10</v>
       </c>
       <c r="R67" t="s">
+        <v>568</v>
+      </c>
+      <c r="S67" t="s">
+        <v>569</v>
+      </c>
+      <c r="T67" t="s">
+        <v>572</v>
+      </c>
+      <c r="U67" t="s">
+        <v>573</v>
+      </c>
+      <c r="V67" t="s">
         <v>205</v>
       </c>
-      <c r="S67">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>57</v>
       </c>
@@ -6579,13 +7411,25 @@
         <v>10</v>
       </c>
       <c r="R68" t="s">
+        <v>568</v>
+      </c>
+      <c r="S68" t="s">
+        <v>569</v>
+      </c>
+      <c r="T68" t="s">
+        <v>572</v>
+      </c>
+      <c r="U68" t="s">
+        <v>573</v>
+      </c>
+      <c r="V68" t="s">
         <v>208</v>
       </c>
-      <c r="S68">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>57</v>
       </c>
@@ -6638,13 +7482,25 @@
         <v>10</v>
       </c>
       <c r="R69" t="s">
+        <v>568</v>
+      </c>
+      <c r="S69" t="s">
+        <v>569</v>
+      </c>
+      <c r="T69" t="s">
+        <v>572</v>
+      </c>
+      <c r="U69" t="s">
+        <v>573</v>
+      </c>
+      <c r="V69" t="s">
         <v>211</v>
       </c>
-      <c r="S69">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>57</v>
       </c>
@@ -6697,13 +7553,25 @@
         <v>10</v>
       </c>
       <c r="R70" t="s">
+        <v>568</v>
+      </c>
+      <c r="S70" t="s">
+        <v>569</v>
+      </c>
+      <c r="T70" t="s">
+        <v>572</v>
+      </c>
+      <c r="U70" t="s">
+        <v>573</v>
+      </c>
+      <c r="V70" t="s">
         <v>214</v>
       </c>
-      <c r="S70">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>57</v>
       </c>
@@ -6756,13 +7624,25 @@
         <v>10</v>
       </c>
       <c r="R71" t="s">
+        <v>568</v>
+      </c>
+      <c r="S71" t="s">
+        <v>569</v>
+      </c>
+      <c r="T71" t="s">
+        <v>572</v>
+      </c>
+      <c r="U71" t="s">
+        <v>573</v>
+      </c>
+      <c r="V71" t="s">
         <v>217</v>
       </c>
-      <c r="S71">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>57</v>
       </c>
@@ -6815,13 +7695,25 @@
         <v>10</v>
       </c>
       <c r="R72" t="s">
+        <v>568</v>
+      </c>
+      <c r="S72" t="s">
+        <v>569</v>
+      </c>
+      <c r="T72" t="s">
+        <v>572</v>
+      </c>
+      <c r="U72" t="s">
+        <v>573</v>
+      </c>
+      <c r="V72" t="s">
         <v>220</v>
       </c>
-      <c r="S72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6874,13 +7766,25 @@
         <v>10</v>
       </c>
       <c r="R73" t="s">
+        <v>568</v>
+      </c>
+      <c r="S73" t="s">
+        <v>569</v>
+      </c>
+      <c r="T73" t="s">
+        <v>572</v>
+      </c>
+      <c r="U73" t="s">
+        <v>573</v>
+      </c>
+      <c r="V73" t="s">
         <v>223</v>
       </c>
-      <c r="S73">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>57</v>
       </c>
@@ -6933,13 +7837,25 @@
         <v>10</v>
       </c>
       <c r="R74" t="s">
+        <v>568</v>
+      </c>
+      <c r="S74" t="s">
+        <v>569</v>
+      </c>
+      <c r="T74" t="s">
+        <v>572</v>
+      </c>
+      <c r="U74" t="s">
+        <v>573</v>
+      </c>
+      <c r="V74" t="s">
         <v>226</v>
       </c>
-      <c r="S74">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6992,13 +7908,25 @@
         <v>10</v>
       </c>
       <c r="R75" t="s">
+        <v>568</v>
+      </c>
+      <c r="S75" t="s">
+        <v>569</v>
+      </c>
+      <c r="T75" t="s">
+        <v>572</v>
+      </c>
+      <c r="U75" t="s">
+        <v>573</v>
+      </c>
+      <c r="V75" t="s">
         <v>229</v>
       </c>
-      <c r="S75">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>57</v>
       </c>
@@ -7051,13 +7979,25 @@
         <v>10</v>
       </c>
       <c r="R76" t="s">
+        <v>568</v>
+      </c>
+      <c r="S76" t="s">
+        <v>569</v>
+      </c>
+      <c r="T76" t="s">
+        <v>572</v>
+      </c>
+      <c r="U76" t="s">
+        <v>573</v>
+      </c>
+      <c r="V76" t="s">
         <v>232</v>
       </c>
-      <c r="S76">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>57</v>
       </c>
@@ -7110,13 +8050,25 @@
         <v>10</v>
       </c>
       <c r="R77" t="s">
+        <v>568</v>
+      </c>
+      <c r="S77" t="s">
+        <v>569</v>
+      </c>
+      <c r="T77" t="s">
+        <v>572</v>
+      </c>
+      <c r="U77" t="s">
+        <v>573</v>
+      </c>
+      <c r="V77" t="s">
         <v>235</v>
       </c>
-      <c r="S77">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>57</v>
       </c>
@@ -7169,13 +8121,25 @@
         <v>10</v>
       </c>
       <c r="R78" t="s">
+        <v>568</v>
+      </c>
+      <c r="S78" t="s">
+        <v>569</v>
+      </c>
+      <c r="T78" t="s">
+        <v>572</v>
+      </c>
+      <c r="U78" t="s">
+        <v>573</v>
+      </c>
+      <c r="V78" t="s">
         <v>238</v>
       </c>
-      <c r="S78">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57</v>
       </c>
@@ -7228,13 +8192,25 @@
         <v>10</v>
       </c>
       <c r="R79" t="s">
+        <v>568</v>
+      </c>
+      <c r="S79" t="s">
+        <v>569</v>
+      </c>
+      <c r="T79" t="s">
+        <v>572</v>
+      </c>
+      <c r="U79" t="s">
+        <v>573</v>
+      </c>
+      <c r="V79" t="s">
         <v>241</v>
       </c>
-      <c r="S79">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>57</v>
       </c>
@@ -7284,13 +8260,25 @@
         <v>10</v>
       </c>
       <c r="R80" t="s">
+        <v>568</v>
+      </c>
+      <c r="S80" t="s">
+        <v>569</v>
+      </c>
+      <c r="T80" t="s">
+        <v>572</v>
+      </c>
+      <c r="U80" t="s">
+        <v>573</v>
+      </c>
+      <c r="V80" t="s">
         <v>244</v>
       </c>
-      <c r="S80">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>57</v>
       </c>
@@ -7343,13 +8331,25 @@
         <v>10</v>
       </c>
       <c r="R81" t="s">
+        <v>568</v>
+      </c>
+      <c r="S81" t="s">
+        <v>569</v>
+      </c>
+      <c r="T81" t="s">
+        <v>572</v>
+      </c>
+      <c r="U81" t="s">
+        <v>573</v>
+      </c>
+      <c r="V81" t="s">
         <v>247</v>
       </c>
-      <c r="S81">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>57</v>
       </c>
@@ -7402,13 +8402,25 @@
         <v>10</v>
       </c>
       <c r="R82" t="s">
+        <v>568</v>
+      </c>
+      <c r="S82" t="s">
+        <v>569</v>
+      </c>
+      <c r="T82" t="s">
+        <v>572</v>
+      </c>
+      <c r="U82" t="s">
+        <v>573</v>
+      </c>
+      <c r="V82" t="s">
         <v>250</v>
       </c>
-      <c r="S82">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>57</v>
       </c>
@@ -7460,11 +8472,23 @@
       <c r="Q83" t="s">
         <v>10</v>
       </c>
-      <c r="S83">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>568</v>
+      </c>
+      <c r="S83" t="s">
+        <v>569</v>
+      </c>
+      <c r="T83" t="s">
+        <v>572</v>
+      </c>
+      <c r="U83" t="s">
+        <v>573</v>
+      </c>
+      <c r="W83">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>57</v>
       </c>
@@ -7517,13 +8541,25 @@
         <v>10</v>
       </c>
       <c r="R84" t="s">
+        <v>568</v>
+      </c>
+      <c r="S84" t="s">
+        <v>569</v>
+      </c>
+      <c r="T84" t="s">
+        <v>572</v>
+      </c>
+      <c r="U84" t="s">
+        <v>573</v>
+      </c>
+      <c r="V84" t="s">
         <v>255</v>
       </c>
-      <c r="S84">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>57</v>
       </c>
@@ -7576,13 +8612,25 @@
         <v>10</v>
       </c>
       <c r="R85" t="s">
+        <v>568</v>
+      </c>
+      <c r="S85" t="s">
+        <v>569</v>
+      </c>
+      <c r="T85" t="s">
+        <v>572</v>
+      </c>
+      <c r="U85" t="s">
+        <v>573</v>
+      </c>
+      <c r="V85" t="s">
         <v>258</v>
       </c>
-      <c r="S85">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>57</v>
       </c>
@@ -7632,13 +8680,25 @@
         <v>10</v>
       </c>
       <c r="R86" t="s">
+        <v>568</v>
+      </c>
+      <c r="S86" t="s">
+        <v>569</v>
+      </c>
+      <c r="T86" t="s">
+        <v>572</v>
+      </c>
+      <c r="U86" t="s">
+        <v>573</v>
+      </c>
+      <c r="V86" t="s">
         <v>261</v>
       </c>
-      <c r="S86">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>57</v>
       </c>
@@ -7691,13 +8751,25 @@
         <v>10</v>
       </c>
       <c r="R87" t="s">
+        <v>568</v>
+      </c>
+      <c r="S87" t="s">
+        <v>569</v>
+      </c>
+      <c r="T87" t="s">
+        <v>572</v>
+      </c>
+      <c r="U87" t="s">
+        <v>573</v>
+      </c>
+      <c r="V87" t="s">
         <v>264</v>
       </c>
-      <c r="S87">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>57</v>
       </c>
@@ -7750,13 +8822,25 @@
         <v>10</v>
       </c>
       <c r="R88" t="s">
+        <v>568</v>
+      </c>
+      <c r="S88" t="s">
+        <v>569</v>
+      </c>
+      <c r="T88" t="s">
+        <v>572</v>
+      </c>
+      <c r="U88" t="s">
+        <v>573</v>
+      </c>
+      <c r="V88" t="s">
         <v>267</v>
       </c>
-      <c r="S88">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -7809,13 +8893,25 @@
         <v>10</v>
       </c>
       <c r="R89" t="s">
+        <v>568</v>
+      </c>
+      <c r="S89" t="s">
+        <v>569</v>
+      </c>
+      <c r="T89" t="s">
+        <v>572</v>
+      </c>
+      <c r="U89" t="s">
+        <v>573</v>
+      </c>
+      <c r="V89" t="s">
         <v>270</v>
       </c>
-      <c r="S89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -7868,13 +8964,25 @@
         <v>10</v>
       </c>
       <c r="R90" t="s">
+        <v>568</v>
+      </c>
+      <c r="S90" t="s">
+        <v>569</v>
+      </c>
+      <c r="T90" t="s">
+        <v>572</v>
+      </c>
+      <c r="U90" t="s">
+        <v>573</v>
+      </c>
+      <c r="V90" t="s">
         <v>273</v>
       </c>
-      <c r="S90">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -7927,13 +9035,25 @@
         <v>10</v>
       </c>
       <c r="R91" t="s">
+        <v>568</v>
+      </c>
+      <c r="S91" t="s">
+        <v>569</v>
+      </c>
+      <c r="T91" t="s">
+        <v>572</v>
+      </c>
+      <c r="U91" t="s">
+        <v>573</v>
+      </c>
+      <c r="V91" t="s">
         <v>202</v>
       </c>
-      <c r="S91">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>57</v>
       </c>
@@ -7986,13 +9106,25 @@
         <v>10</v>
       </c>
       <c r="R92" t="s">
+        <v>568</v>
+      </c>
+      <c r="S92" t="s">
+        <v>569</v>
+      </c>
+      <c r="T92" t="s">
+        <v>572</v>
+      </c>
+      <c r="U92" t="s">
+        <v>573</v>
+      </c>
+      <c r="V92" t="s">
         <v>279</v>
       </c>
-      <c r="S92">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>57</v>
       </c>
@@ -8045,13 +9177,25 @@
         <v>10</v>
       </c>
       <c r="R93" t="s">
+        <v>568</v>
+      </c>
+      <c r="S93" t="s">
+        <v>569</v>
+      </c>
+      <c r="T93" t="s">
+        <v>572</v>
+      </c>
+      <c r="U93" t="s">
+        <v>573</v>
+      </c>
+      <c r="V93" t="s">
         <v>282</v>
       </c>
-      <c r="S93">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>57</v>
       </c>
@@ -8104,13 +9248,25 @@
         <v>10</v>
       </c>
       <c r="R94" t="s">
+        <v>568</v>
+      </c>
+      <c r="S94" t="s">
+        <v>569</v>
+      </c>
+      <c r="T94" t="s">
+        <v>572</v>
+      </c>
+      <c r="U94" t="s">
+        <v>573</v>
+      </c>
+      <c r="V94" t="s">
         <v>285</v>
       </c>
-      <c r="S94">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>57</v>
       </c>
@@ -8163,13 +9319,25 @@
         <v>10</v>
       </c>
       <c r="R95" t="s">
+        <v>568</v>
+      </c>
+      <c r="S95" t="s">
+        <v>569</v>
+      </c>
+      <c r="T95" t="s">
+        <v>572</v>
+      </c>
+      <c r="U95" t="s">
+        <v>573</v>
+      </c>
+      <c r="V95" t="s">
         <v>288</v>
       </c>
-      <c r="S95">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>57</v>
       </c>
@@ -8222,13 +9390,25 @@
         <v>10</v>
       </c>
       <c r="R96" t="s">
+        <v>568</v>
+      </c>
+      <c r="S96" t="s">
+        <v>569</v>
+      </c>
+      <c r="T96" t="s">
+        <v>572</v>
+      </c>
+      <c r="U96" t="s">
+        <v>573</v>
+      </c>
+      <c r="V96" t="s">
         <v>291</v>
       </c>
-      <c r="S96">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>57</v>
       </c>
@@ -8281,13 +9461,25 @@
         <v>10</v>
       </c>
       <c r="R97" t="s">
+        <v>568</v>
+      </c>
+      <c r="S97" t="s">
+        <v>569</v>
+      </c>
+      <c r="T97" t="s">
+        <v>572</v>
+      </c>
+      <c r="U97" t="s">
+        <v>573</v>
+      </c>
+      <c r="V97" t="s">
         <v>294</v>
       </c>
-      <c r="S97">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>57</v>
       </c>
@@ -8339,11 +9531,23 @@
       <c r="Q98" t="s">
         <v>10</v>
       </c>
-      <c r="S98">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R98" t="s">
+        <v>568</v>
+      </c>
+      <c r="S98" t="s">
+        <v>569</v>
+      </c>
+      <c r="T98" t="s">
+        <v>572</v>
+      </c>
+      <c r="U98" t="s">
+        <v>573</v>
+      </c>
+      <c r="W98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>57</v>
       </c>
@@ -8396,13 +9600,25 @@
         <v>10</v>
       </c>
       <c r="R99" t="s">
+        <v>568</v>
+      </c>
+      <c r="S99" t="s">
+        <v>569</v>
+      </c>
+      <c r="T99" t="s">
+        <v>572</v>
+      </c>
+      <c r="U99" t="s">
+        <v>573</v>
+      </c>
+      <c r="V99" t="s">
         <v>299</v>
       </c>
-      <c r="S99">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>57</v>
       </c>
@@ -8455,13 +9671,25 @@
         <v>10</v>
       </c>
       <c r="R100" t="s">
+        <v>568</v>
+      </c>
+      <c r="S100" t="s">
+        <v>569</v>
+      </c>
+      <c r="T100" t="s">
+        <v>572</v>
+      </c>
+      <c r="U100" t="s">
+        <v>573</v>
+      </c>
+      <c r="V100" t="s">
         <v>125</v>
       </c>
-      <c r="S100">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>57</v>
       </c>
@@ -8511,13 +9739,25 @@
         <v>10</v>
       </c>
       <c r="R101" t="s">
+        <v>568</v>
+      </c>
+      <c r="S101" t="s">
+        <v>569</v>
+      </c>
+      <c r="T101" t="s">
+        <v>572</v>
+      </c>
+      <c r="U101" t="s">
+        <v>573</v>
+      </c>
+      <c r="V101" t="s">
         <v>304</v>
       </c>
-      <c r="S101">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>57</v>
       </c>
@@ -8570,13 +9810,25 @@
         <v>10</v>
       </c>
       <c r="R102" t="s">
+        <v>568</v>
+      </c>
+      <c r="S102" t="s">
+        <v>569</v>
+      </c>
+      <c r="T102" t="s">
+        <v>572</v>
+      </c>
+      <c r="U102" t="s">
+        <v>573</v>
+      </c>
+      <c r="V102" t="s">
         <v>307</v>
       </c>
-      <c r="S102">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>57</v>
       </c>
@@ -8629,13 +9881,25 @@
         <v>10</v>
       </c>
       <c r="R103" t="s">
+        <v>568</v>
+      </c>
+      <c r="S103" t="s">
+        <v>569</v>
+      </c>
+      <c r="T103" t="s">
+        <v>572</v>
+      </c>
+      <c r="U103" t="s">
+        <v>573</v>
+      </c>
+      <c r="V103" t="s">
         <v>310</v>
       </c>
-      <c r="S103">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>57</v>
       </c>
@@ -8688,13 +9952,25 @@
         <v>10</v>
       </c>
       <c r="R104" t="s">
+        <v>568</v>
+      </c>
+      <c r="S104" t="s">
+        <v>569</v>
+      </c>
+      <c r="T104" t="s">
+        <v>572</v>
+      </c>
+      <c r="U104" t="s">
+        <v>573</v>
+      </c>
+      <c r="V104" t="s">
         <v>313</v>
       </c>
-      <c r="S104">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>57</v>
       </c>
@@ -8747,13 +10023,25 @@
         <v>10</v>
       </c>
       <c r="R105" t="s">
+        <v>568</v>
+      </c>
+      <c r="S105" t="s">
+        <v>569</v>
+      </c>
+      <c r="T105" t="s">
+        <v>572</v>
+      </c>
+      <c r="U105" t="s">
+        <v>573</v>
+      </c>
+      <c r="V105" t="s">
         <v>316</v>
       </c>
-      <c r="S105">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>57</v>
       </c>
@@ -8806,13 +10094,25 @@
         <v>10</v>
       </c>
       <c r="R106" t="s">
+        <v>568</v>
+      </c>
+      <c r="S106" t="s">
+        <v>569</v>
+      </c>
+      <c r="T106" t="s">
+        <v>572</v>
+      </c>
+      <c r="U106" t="s">
+        <v>573</v>
+      </c>
+      <c r="V106" t="s">
         <v>319</v>
       </c>
-      <c r="S106">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>57</v>
       </c>
@@ -8865,13 +10165,25 @@
         <v>10</v>
       </c>
       <c r="R107" t="s">
+        <v>568</v>
+      </c>
+      <c r="S107" t="s">
+        <v>569</v>
+      </c>
+      <c r="T107" t="s">
+        <v>572</v>
+      </c>
+      <c r="U107" t="s">
+        <v>573</v>
+      </c>
+      <c r="V107" t="s">
         <v>322</v>
       </c>
-      <c r="S107">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>57</v>
       </c>
@@ -8924,13 +10236,25 @@
         <v>10</v>
       </c>
       <c r="R108" t="s">
+        <v>568</v>
+      </c>
+      <c r="S108" t="s">
+        <v>569</v>
+      </c>
+      <c r="T108" t="s">
+        <v>572</v>
+      </c>
+      <c r="U108" t="s">
+        <v>573</v>
+      </c>
+      <c r="V108" t="s">
         <v>325</v>
       </c>
-      <c r="S108">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>57</v>
       </c>
@@ -8983,13 +10307,25 @@
         <v>10</v>
       </c>
       <c r="R109" t="s">
+        <v>568</v>
+      </c>
+      <c r="S109" t="s">
+        <v>569</v>
+      </c>
+      <c r="T109" t="s">
+        <v>572</v>
+      </c>
+      <c r="U109" t="s">
+        <v>573</v>
+      </c>
+      <c r="V109" t="s">
         <v>328</v>
       </c>
-      <c r="S109">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>57</v>
       </c>
@@ -9042,13 +10378,25 @@
         <v>10</v>
       </c>
       <c r="R110" t="s">
+        <v>568</v>
+      </c>
+      <c r="S110" t="s">
+        <v>569</v>
+      </c>
+      <c r="T110" t="s">
+        <v>572</v>
+      </c>
+      <c r="U110" t="s">
+        <v>573</v>
+      </c>
+      <c r="V110" t="s">
         <v>331</v>
       </c>
-      <c r="S110">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>57</v>
       </c>
@@ -9101,13 +10449,25 @@
         <v>10</v>
       </c>
       <c r="R111" t="s">
+        <v>568</v>
+      </c>
+      <c r="S111" t="s">
+        <v>569</v>
+      </c>
+      <c r="T111" t="s">
+        <v>572</v>
+      </c>
+      <c r="U111" t="s">
+        <v>573</v>
+      </c>
+      <c r="V111" t="s">
         <v>334</v>
       </c>
-      <c r="S111">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>57</v>
       </c>
@@ -9160,13 +10520,25 @@
         <v>10</v>
       </c>
       <c r="R112" t="s">
+        <v>568</v>
+      </c>
+      <c r="S112" t="s">
+        <v>569</v>
+      </c>
+      <c r="T112" t="s">
+        <v>572</v>
+      </c>
+      <c r="U112" t="s">
+        <v>573</v>
+      </c>
+      <c r="V112" t="s">
         <v>337</v>
       </c>
-      <c r="S112">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>57</v>
       </c>
@@ -9219,13 +10591,25 @@
         <v>10</v>
       </c>
       <c r="R113" t="s">
+        <v>568</v>
+      </c>
+      <c r="S113" t="s">
+        <v>569</v>
+      </c>
+      <c r="T113" t="s">
+        <v>572</v>
+      </c>
+      <c r="U113" t="s">
+        <v>573</v>
+      </c>
+      <c r="V113" t="s">
         <v>340</v>
       </c>
-      <c r="S113">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>57</v>
       </c>
@@ -9278,13 +10662,25 @@
         <v>10</v>
       </c>
       <c r="R114" t="s">
+        <v>568</v>
+      </c>
+      <c r="S114" t="s">
+        <v>569</v>
+      </c>
+      <c r="T114" t="s">
+        <v>572</v>
+      </c>
+      <c r="U114" t="s">
+        <v>573</v>
+      </c>
+      <c r="V114" t="s">
         <v>343</v>
       </c>
-      <c r="S114">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>57</v>
       </c>
@@ -9336,11 +10732,23 @@
       <c r="Q115" t="s">
         <v>10</v>
       </c>
-      <c r="S115">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>568</v>
+      </c>
+      <c r="S115" t="s">
+        <v>569</v>
+      </c>
+      <c r="T115" t="s">
+        <v>572</v>
+      </c>
+      <c r="U115" t="s">
+        <v>573</v>
+      </c>
+      <c r="W115">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>57</v>
       </c>
@@ -9393,13 +10801,25 @@
         <v>10</v>
       </c>
       <c r="R116" t="s">
+        <v>568</v>
+      </c>
+      <c r="S116" t="s">
+        <v>569</v>
+      </c>
+      <c r="T116" t="s">
+        <v>572</v>
+      </c>
+      <c r="U116" t="s">
+        <v>573</v>
+      </c>
+      <c r="V116" t="s">
         <v>348</v>
       </c>
-      <c r="S116">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>57</v>
       </c>
@@ -9452,13 +10872,25 @@
         <v>10</v>
       </c>
       <c r="R117" t="s">
+        <v>568</v>
+      </c>
+      <c r="S117" t="s">
+        <v>569</v>
+      </c>
+      <c r="T117" t="s">
+        <v>572</v>
+      </c>
+      <c r="U117" t="s">
+        <v>573</v>
+      </c>
+      <c r="V117" t="s">
         <v>351</v>
       </c>
-      <c r="S117">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>57</v>
       </c>
@@ -9511,13 +10943,25 @@
         <v>10</v>
       </c>
       <c r="R118" t="s">
+        <v>568</v>
+      </c>
+      <c r="S118" t="s">
+        <v>569</v>
+      </c>
+      <c r="T118" t="s">
+        <v>572</v>
+      </c>
+      <c r="U118" t="s">
+        <v>573</v>
+      </c>
+      <c r="V118" t="s">
         <v>354</v>
       </c>
-      <c r="S118">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>57</v>
       </c>
@@ -9570,13 +11014,25 @@
         <v>10</v>
       </c>
       <c r="R119" t="s">
+        <v>568</v>
+      </c>
+      <c r="S119" t="s">
+        <v>569</v>
+      </c>
+      <c r="T119" t="s">
+        <v>572</v>
+      </c>
+      <c r="U119" t="s">
+        <v>573</v>
+      </c>
+      <c r="V119" t="s">
         <v>102</v>
       </c>
-      <c r="S119">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>57</v>
       </c>
@@ -9629,13 +11085,25 @@
         <v>10</v>
       </c>
       <c r="R120" t="s">
+        <v>568</v>
+      </c>
+      <c r="S120" t="s">
+        <v>569</v>
+      </c>
+      <c r="T120" t="s">
+        <v>572</v>
+      </c>
+      <c r="U120" t="s">
+        <v>573</v>
+      </c>
+      <c r="V120" t="s">
         <v>359</v>
       </c>
-      <c r="S120">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W120">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>57</v>
       </c>
@@ -9687,11 +11155,23 @@
       <c r="Q121" t="s">
         <v>10</v>
       </c>
-      <c r="S121">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R121" t="s">
+        <v>568</v>
+      </c>
+      <c r="S121" t="s">
+        <v>569</v>
+      </c>
+      <c r="T121" t="s">
+        <v>572</v>
+      </c>
+      <c r="U121" t="s">
+        <v>573</v>
+      </c>
+      <c r="W121">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>57</v>
       </c>
@@ -9744,13 +11224,25 @@
         <v>10</v>
       </c>
       <c r="R122" t="s">
+        <v>568</v>
+      </c>
+      <c r="S122" t="s">
+        <v>569</v>
+      </c>
+      <c r="T122" t="s">
+        <v>572</v>
+      </c>
+      <c r="U122" t="s">
+        <v>573</v>
+      </c>
+      <c r="V122" t="s">
         <v>364</v>
       </c>
-      <c r="S122">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W122">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>57</v>
       </c>
@@ -9803,13 +11295,25 @@
         <v>10</v>
       </c>
       <c r="R123" t="s">
+        <v>568</v>
+      </c>
+      <c r="S123" t="s">
+        <v>569</v>
+      </c>
+      <c r="T123" t="s">
+        <v>572</v>
+      </c>
+      <c r="U123" t="s">
+        <v>573</v>
+      </c>
+      <c r="V123" t="s">
         <v>102</v>
       </c>
-      <c r="S123">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>57</v>
       </c>
@@ -9861,11 +11365,23 @@
       <c r="Q124" t="s">
         <v>10</v>
       </c>
-      <c r="S124">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R124" t="s">
+        <v>568</v>
+      </c>
+      <c r="S124" t="s">
+        <v>569</v>
+      </c>
+      <c r="T124" t="s">
+        <v>572</v>
+      </c>
+      <c r="U124" t="s">
+        <v>573</v>
+      </c>
+      <c r="W124">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>57</v>
       </c>
@@ -9918,13 +11434,25 @@
         <v>10</v>
       </c>
       <c r="R125" t="s">
+        <v>568</v>
+      </c>
+      <c r="S125" t="s">
+        <v>569</v>
+      </c>
+      <c r="T125" t="s">
+        <v>572</v>
+      </c>
+      <c r="U125" t="s">
+        <v>573</v>
+      </c>
+      <c r="V125" t="s">
         <v>371</v>
       </c>
-      <c r="S125">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>57</v>
       </c>
@@ -9977,13 +11505,25 @@
         <v>10</v>
       </c>
       <c r="R126" t="s">
+        <v>568</v>
+      </c>
+      <c r="S126" t="s">
+        <v>569</v>
+      </c>
+      <c r="T126" t="s">
+        <v>572</v>
+      </c>
+      <c r="U126" t="s">
+        <v>573</v>
+      </c>
+      <c r="V126" t="s">
         <v>374</v>
       </c>
-      <c r="S126">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>57</v>
       </c>
@@ -10035,11 +11575,23 @@
       <c r="Q127" t="s">
         <v>10</v>
       </c>
-      <c r="S127">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R127" t="s">
+        <v>568</v>
+      </c>
+      <c r="S127" t="s">
+        <v>569</v>
+      </c>
+      <c r="T127" t="s">
+        <v>572</v>
+      </c>
+      <c r="U127" t="s">
+        <v>573</v>
+      </c>
+      <c r="W127">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>57</v>
       </c>
@@ -10092,13 +11644,25 @@
         <v>10</v>
       </c>
       <c r="R128" t="s">
+        <v>568</v>
+      </c>
+      <c r="S128" t="s">
+        <v>569</v>
+      </c>
+      <c r="T128" t="s">
+        <v>572</v>
+      </c>
+      <c r="U128" t="s">
+        <v>573</v>
+      </c>
+      <c r="V128" t="s">
         <v>379</v>
       </c>
-      <c r="S128">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W128">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>57</v>
       </c>
@@ -10151,13 +11715,25 @@
         <v>10</v>
       </c>
       <c r="R129" t="s">
+        <v>568</v>
+      </c>
+      <c r="S129" t="s">
+        <v>569</v>
+      </c>
+      <c r="T129" t="s">
+        <v>572</v>
+      </c>
+      <c r="U129" t="s">
+        <v>573</v>
+      </c>
+      <c r="V129" t="s">
         <v>382</v>
       </c>
-      <c r="S129">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>57</v>
       </c>
@@ -10210,13 +11786,25 @@
         <v>10</v>
       </c>
       <c r="R130" t="s">
+        <v>568</v>
+      </c>
+      <c r="S130" t="s">
+        <v>569</v>
+      </c>
+      <c r="T130" t="s">
+        <v>572</v>
+      </c>
+      <c r="U130" t="s">
+        <v>573</v>
+      </c>
+      <c r="V130" t="s">
         <v>385</v>
       </c>
-      <c r="S130">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W130">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>57</v>
       </c>
@@ -10269,13 +11857,25 @@
         <v>10</v>
       </c>
       <c r="R131" t="s">
+        <v>568</v>
+      </c>
+      <c r="S131" t="s">
+        <v>569</v>
+      </c>
+      <c r="T131" t="s">
+        <v>572</v>
+      </c>
+      <c r="U131" t="s">
+        <v>573</v>
+      </c>
+      <c r="V131" t="s">
         <v>388</v>
       </c>
-      <c r="S131">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>57</v>
       </c>
@@ -10327,11 +11927,23 @@
       <c r="Q132" t="s">
         <v>10</v>
       </c>
-      <c r="S132">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>568</v>
+      </c>
+      <c r="S132" t="s">
+        <v>569</v>
+      </c>
+      <c r="T132" t="s">
+        <v>572</v>
+      </c>
+      <c r="U132" t="s">
+        <v>573</v>
+      </c>
+      <c r="W132">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>57</v>
       </c>
@@ -10384,13 +11996,25 @@
         <v>10</v>
       </c>
       <c r="R133" t="s">
+        <v>568</v>
+      </c>
+      <c r="S133" t="s">
+        <v>569</v>
+      </c>
+      <c r="T133" t="s">
+        <v>572</v>
+      </c>
+      <c r="U133" t="s">
+        <v>573</v>
+      </c>
+      <c r="V133" t="s">
         <v>393</v>
       </c>
-      <c r="S133">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>57</v>
       </c>
@@ -10443,13 +12067,25 @@
         <v>10</v>
       </c>
       <c r="R134" t="s">
+        <v>568</v>
+      </c>
+      <c r="S134" t="s">
+        <v>569</v>
+      </c>
+      <c r="T134" t="s">
+        <v>572</v>
+      </c>
+      <c r="U134" t="s">
+        <v>573</v>
+      </c>
+      <c r="V134" t="s">
         <v>396</v>
       </c>
-      <c r="S134">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W134">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>57</v>
       </c>
@@ -10502,13 +12138,25 @@
         <v>10</v>
       </c>
       <c r="R135" t="s">
+        <v>568</v>
+      </c>
+      <c r="S135" t="s">
+        <v>569</v>
+      </c>
+      <c r="T135" t="s">
+        <v>572</v>
+      </c>
+      <c r="U135" t="s">
+        <v>573</v>
+      </c>
+      <c r="V135" t="s">
         <v>399</v>
       </c>
-      <c r="S135">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>57</v>
       </c>
@@ -10561,13 +12209,25 @@
         <v>10</v>
       </c>
       <c r="R136" t="s">
+        <v>568</v>
+      </c>
+      <c r="S136" t="s">
+        <v>569</v>
+      </c>
+      <c r="T136" t="s">
+        <v>572</v>
+      </c>
+      <c r="U136" t="s">
+        <v>573</v>
+      </c>
+      <c r="V136" t="s">
         <v>402</v>
       </c>
-      <c r="S136">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>57</v>
       </c>
@@ -10620,13 +12280,25 @@
         <v>10</v>
       </c>
       <c r="R137" t="s">
+        <v>568</v>
+      </c>
+      <c r="S137" t="s">
+        <v>569</v>
+      </c>
+      <c r="T137" t="s">
+        <v>572</v>
+      </c>
+      <c r="U137" t="s">
+        <v>573</v>
+      </c>
+      <c r="V137" t="s">
         <v>202</v>
       </c>
-      <c r="S137">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>57</v>
       </c>
@@ -10679,13 +12351,25 @@
         <v>10</v>
       </c>
       <c r="R138" t="s">
+        <v>568</v>
+      </c>
+      <c r="S138" t="s">
+        <v>569</v>
+      </c>
+      <c r="T138" t="s">
+        <v>572</v>
+      </c>
+      <c r="U138" t="s">
+        <v>573</v>
+      </c>
+      <c r="V138" t="s">
         <v>407</v>
       </c>
-      <c r="S138">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W138">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>57</v>
       </c>
@@ -10738,13 +12422,25 @@
         <v>10</v>
       </c>
       <c r="R139" t="s">
+        <v>568</v>
+      </c>
+      <c r="S139" t="s">
+        <v>569</v>
+      </c>
+      <c r="T139" t="s">
+        <v>572</v>
+      </c>
+      <c r="U139" t="s">
+        <v>573</v>
+      </c>
+      <c r="V139" t="s">
         <v>410</v>
       </c>
-      <c r="S139">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W139">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>57</v>
       </c>
@@ -10797,13 +12493,25 @@
         <v>10</v>
       </c>
       <c r="R140" t="s">
+        <v>568</v>
+      </c>
+      <c r="S140" t="s">
+        <v>569</v>
+      </c>
+      <c r="T140" t="s">
+        <v>572</v>
+      </c>
+      <c r="U140" t="s">
+        <v>573</v>
+      </c>
+      <c r="V140" t="s">
         <v>413</v>
       </c>
-      <c r="S140">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>57</v>
       </c>
@@ -10856,13 +12564,25 @@
         <v>10</v>
       </c>
       <c r="R141" t="s">
+        <v>568</v>
+      </c>
+      <c r="S141" t="s">
+        <v>569</v>
+      </c>
+      <c r="T141" t="s">
+        <v>572</v>
+      </c>
+      <c r="U141" t="s">
+        <v>573</v>
+      </c>
+      <c r="V141" t="s">
         <v>416</v>
       </c>
-      <c r="S141">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>57</v>
       </c>
@@ -10915,13 +12635,25 @@
         <v>10</v>
       </c>
       <c r="R142" t="s">
+        <v>568</v>
+      </c>
+      <c r="S142" t="s">
+        <v>569</v>
+      </c>
+      <c r="T142" t="s">
+        <v>572</v>
+      </c>
+      <c r="U142" t="s">
+        <v>573</v>
+      </c>
+      <c r="V142" t="s">
         <v>419</v>
       </c>
-      <c r="S142">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>57</v>
       </c>
@@ -10974,13 +12706,25 @@
         <v>10</v>
       </c>
       <c r="R143" t="s">
+        <v>568</v>
+      </c>
+      <c r="S143" t="s">
+        <v>569</v>
+      </c>
+      <c r="T143" t="s">
+        <v>572</v>
+      </c>
+      <c r="U143" t="s">
+        <v>573</v>
+      </c>
+      <c r="V143" t="s">
         <v>422</v>
       </c>
-      <c r="S143">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>57</v>
       </c>
@@ -11033,13 +12777,25 @@
         <v>10</v>
       </c>
       <c r="R144" t="s">
+        <v>568</v>
+      </c>
+      <c r="S144" t="s">
+        <v>569</v>
+      </c>
+      <c r="T144" t="s">
+        <v>572</v>
+      </c>
+      <c r="U144" t="s">
+        <v>573</v>
+      </c>
+      <c r="V144" t="s">
         <v>425</v>
       </c>
-      <c r="S144">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
@@ -11092,13 +12848,25 @@
         <v>10</v>
       </c>
       <c r="R145" t="s">
+        <v>568</v>
+      </c>
+      <c r="S145" t="s">
+        <v>569</v>
+      </c>
+      <c r="T145" t="s">
+        <v>572</v>
+      </c>
+      <c r="U145" t="s">
+        <v>573</v>
+      </c>
+      <c r="V145" t="s">
         <v>428</v>
       </c>
-      <c r="S145">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>57</v>
       </c>
@@ -11151,13 +12919,25 @@
         <v>10</v>
       </c>
       <c r="R146" t="s">
+        <v>568</v>
+      </c>
+      <c r="S146" t="s">
+        <v>569</v>
+      </c>
+      <c r="T146" t="s">
+        <v>572</v>
+      </c>
+      <c r="U146" t="s">
+        <v>573</v>
+      </c>
+      <c r="V146" t="s">
         <v>431</v>
       </c>
-      <c r="S146">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>57</v>
       </c>
@@ -11209,11 +12989,23 @@
       <c r="Q147" t="s">
         <v>10</v>
       </c>
-      <c r="S147">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R147" t="s">
+        <v>568</v>
+      </c>
+      <c r="S147" t="s">
+        <v>569</v>
+      </c>
+      <c r="T147" t="s">
+        <v>572</v>
+      </c>
+      <c r="U147" t="s">
+        <v>573</v>
+      </c>
+      <c r="W147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>57</v>
       </c>
@@ -11266,13 +13058,25 @@
         <v>10</v>
       </c>
       <c r="R148" t="s">
+        <v>568</v>
+      </c>
+      <c r="S148" t="s">
+        <v>569</v>
+      </c>
+      <c r="T148" t="s">
+        <v>572</v>
+      </c>
+      <c r="U148" t="s">
+        <v>573</v>
+      </c>
+      <c r="V148" t="s">
         <v>436</v>
       </c>
-      <c r="S148">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>57</v>
       </c>
@@ -11325,13 +13129,25 @@
         <v>10</v>
       </c>
       <c r="R149" t="s">
+        <v>568</v>
+      </c>
+      <c r="S149" t="s">
+        <v>569</v>
+      </c>
+      <c r="T149" t="s">
+        <v>572</v>
+      </c>
+      <c r="U149" t="s">
+        <v>573</v>
+      </c>
+      <c r="V149" t="s">
         <v>439</v>
       </c>
-      <c r="S149">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>57</v>
       </c>
@@ -11381,13 +13197,25 @@
         <v>10</v>
       </c>
       <c r="R150" t="s">
+        <v>568</v>
+      </c>
+      <c r="S150" t="s">
+        <v>569</v>
+      </c>
+      <c r="T150" t="s">
+        <v>572</v>
+      </c>
+      <c r="U150" t="s">
+        <v>573</v>
+      </c>
+      <c r="V150" t="s">
         <v>443</v>
       </c>
-      <c r="S150">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>57</v>
       </c>
@@ -11437,13 +13265,25 @@
         <v>10</v>
       </c>
       <c r="R151" t="s">
+        <v>568</v>
+      </c>
+      <c r="S151" t="s">
+        <v>569</v>
+      </c>
+      <c r="T151" t="s">
+        <v>572</v>
+      </c>
+      <c r="U151" t="s">
+        <v>573</v>
+      </c>
+      <c r="V151" t="s">
         <v>446</v>
       </c>
-      <c r="S151">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>57</v>
       </c>
@@ -11496,13 +13336,25 @@
         <v>10</v>
       </c>
       <c r="R152" t="s">
+        <v>568</v>
+      </c>
+      <c r="S152" t="s">
+        <v>569</v>
+      </c>
+      <c r="T152" t="s">
+        <v>572</v>
+      </c>
+      <c r="U152" t="s">
+        <v>573</v>
+      </c>
+      <c r="V152" t="s">
         <v>449</v>
       </c>
-      <c r="S152">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>57</v>
       </c>
@@ -11555,13 +13407,25 @@
         <v>10</v>
       </c>
       <c r="R153" t="s">
+        <v>568</v>
+      </c>
+      <c r="S153" t="s">
+        <v>569</v>
+      </c>
+      <c r="T153" t="s">
+        <v>572</v>
+      </c>
+      <c r="U153" t="s">
+        <v>573</v>
+      </c>
+      <c r="V153" t="s">
         <v>452</v>
       </c>
-      <c r="S153">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>57</v>
       </c>
@@ -11614,13 +13478,25 @@
         <v>10</v>
       </c>
       <c r="R154" t="s">
+        <v>568</v>
+      </c>
+      <c r="S154" t="s">
+        <v>569</v>
+      </c>
+      <c r="T154" t="s">
+        <v>572</v>
+      </c>
+      <c r="U154" t="s">
+        <v>573</v>
+      </c>
+      <c r="V154" t="s">
         <v>455</v>
       </c>
-      <c r="S154">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>57</v>
       </c>
@@ -11670,13 +13546,25 @@
         <v>10</v>
       </c>
       <c r="R155" t="s">
+        <v>568</v>
+      </c>
+      <c r="S155" t="s">
+        <v>569</v>
+      </c>
+      <c r="T155" t="s">
+        <v>572</v>
+      </c>
+      <c r="U155" t="s">
+        <v>573</v>
+      </c>
+      <c r="V155" t="s">
         <v>458</v>
       </c>
-      <c r="S155">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>57</v>
       </c>
@@ -11729,13 +13617,25 @@
         <v>10</v>
       </c>
       <c r="R156" t="s">
+        <v>568</v>
+      </c>
+      <c r="S156" t="s">
+        <v>569</v>
+      </c>
+      <c r="T156" t="s">
+        <v>572</v>
+      </c>
+      <c r="U156" t="s">
+        <v>573</v>
+      </c>
+      <c r="V156" t="s">
         <v>461</v>
       </c>
-      <c r="S156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>57</v>
       </c>
@@ -11788,13 +13688,25 @@
         <v>10</v>
       </c>
       <c r="R157" t="s">
+        <v>568</v>
+      </c>
+      <c r="S157" t="s">
+        <v>569</v>
+      </c>
+      <c r="T157" t="s">
+        <v>572</v>
+      </c>
+      <c r="U157" t="s">
+        <v>573</v>
+      </c>
+      <c r="V157" t="s">
         <v>464</v>
       </c>
-      <c r="S157">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>57</v>
       </c>
@@ -11847,13 +13759,25 @@
         <v>10</v>
       </c>
       <c r="R158" t="s">
+        <v>568</v>
+      </c>
+      <c r="S158" t="s">
+        <v>569</v>
+      </c>
+      <c r="T158" t="s">
+        <v>572</v>
+      </c>
+      <c r="U158" t="s">
+        <v>573</v>
+      </c>
+      <c r="V158" t="s">
         <v>467</v>
       </c>
-      <c r="S158">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>57</v>
       </c>
@@ -11906,13 +13830,25 @@
         <v>10</v>
       </c>
       <c r="R159" t="s">
+        <v>568</v>
+      </c>
+      <c r="S159" t="s">
+        <v>569</v>
+      </c>
+      <c r="T159" t="s">
+        <v>572</v>
+      </c>
+      <c r="U159" t="s">
+        <v>573</v>
+      </c>
+      <c r="V159" t="s">
         <v>470</v>
       </c>
-      <c r="S159">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57</v>
       </c>
@@ -11965,13 +13901,25 @@
         <v>10</v>
       </c>
       <c r="R160" t="s">
+        <v>568</v>
+      </c>
+      <c r="S160" t="s">
+        <v>569</v>
+      </c>
+      <c r="T160" t="s">
+        <v>572</v>
+      </c>
+      <c r="U160" t="s">
+        <v>573</v>
+      </c>
+      <c r="V160" t="s">
         <v>473</v>
       </c>
-      <c r="S160">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>57</v>
       </c>
@@ -12024,13 +13972,25 @@
         <v>10</v>
       </c>
       <c r="R161" t="s">
+        <v>568</v>
+      </c>
+      <c r="S161" t="s">
+        <v>569</v>
+      </c>
+      <c r="T161" t="s">
+        <v>572</v>
+      </c>
+      <c r="U161" t="s">
+        <v>573</v>
+      </c>
+      <c r="V161" t="s">
         <v>476</v>
       </c>
-      <c r="S161">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>57</v>
       </c>
@@ -12083,13 +14043,25 @@
         <v>10</v>
       </c>
       <c r="R162" t="s">
+        <v>568</v>
+      </c>
+      <c r="S162" t="s">
+        <v>569</v>
+      </c>
+      <c r="T162" t="s">
+        <v>572</v>
+      </c>
+      <c r="U162" t="s">
+        <v>573</v>
+      </c>
+      <c r="V162" t="s">
         <v>479</v>
       </c>
-      <c r="S162">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>57</v>
       </c>
@@ -12142,13 +14114,25 @@
         <v>10</v>
       </c>
       <c r="R163" t="s">
+        <v>568</v>
+      </c>
+      <c r="S163" t="s">
+        <v>569</v>
+      </c>
+      <c r="T163" t="s">
+        <v>572</v>
+      </c>
+      <c r="U163" t="s">
+        <v>573</v>
+      </c>
+      <c r="V163" t="s">
         <v>482</v>
       </c>
-      <c r="S163">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>57</v>
       </c>
@@ -12201,13 +14185,25 @@
         <v>10</v>
       </c>
       <c r="R164" t="s">
+        <v>568</v>
+      </c>
+      <c r="S164" t="s">
+        <v>569</v>
+      </c>
+      <c r="T164" t="s">
+        <v>572</v>
+      </c>
+      <c r="U164" t="s">
+        <v>573</v>
+      </c>
+      <c r="V164" t="s">
         <v>485</v>
       </c>
-      <c r="S164">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>57</v>
       </c>
@@ -12260,13 +14256,25 @@
         <v>10</v>
       </c>
       <c r="R165" t="s">
+        <v>568</v>
+      </c>
+      <c r="S165" t="s">
+        <v>569</v>
+      </c>
+      <c r="T165" t="s">
+        <v>572</v>
+      </c>
+      <c r="U165" t="s">
+        <v>573</v>
+      </c>
+      <c r="V165" t="s">
         <v>488</v>
       </c>
-      <c r="S165">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>57</v>
       </c>
@@ -12319,13 +14327,25 @@
         <v>10</v>
       </c>
       <c r="R166" t="s">
+        <v>568</v>
+      </c>
+      <c r="S166" t="s">
+        <v>569</v>
+      </c>
+      <c r="T166" t="s">
+        <v>572</v>
+      </c>
+      <c r="U166" t="s">
+        <v>573</v>
+      </c>
+      <c r="V166" t="s">
         <v>491</v>
       </c>
-      <c r="S166">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>57</v>
       </c>
@@ -12378,13 +14398,25 @@
         <v>10</v>
       </c>
       <c r="R167" t="s">
+        <v>568</v>
+      </c>
+      <c r="S167" t="s">
+        <v>569</v>
+      </c>
+      <c r="T167" t="s">
+        <v>572</v>
+      </c>
+      <c r="U167" t="s">
+        <v>573</v>
+      </c>
+      <c r="V167" t="s">
         <v>494</v>
       </c>
-      <c r="S167">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>57</v>
       </c>
@@ -12437,13 +14469,25 @@
         <v>10</v>
       </c>
       <c r="R168" t="s">
+        <v>568</v>
+      </c>
+      <c r="S168" t="s">
+        <v>569</v>
+      </c>
+      <c r="T168" t="s">
+        <v>572</v>
+      </c>
+      <c r="U168" t="s">
+        <v>573</v>
+      </c>
+      <c r="V168" t="s">
         <v>497</v>
       </c>
-      <c r="S168">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>57</v>
       </c>
@@ -12496,13 +14540,25 @@
         <v>10</v>
       </c>
       <c r="R169" t="s">
+        <v>568</v>
+      </c>
+      <c r="S169" t="s">
+        <v>569</v>
+      </c>
+      <c r="T169" t="s">
+        <v>572</v>
+      </c>
+      <c r="U169" t="s">
+        <v>573</v>
+      </c>
+      <c r="V169" t="s">
         <v>497</v>
       </c>
-      <c r="S169">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>57</v>
       </c>
@@ -12555,13 +14611,25 @@
         <v>10</v>
       </c>
       <c r="R170" t="s">
+        <v>568</v>
+      </c>
+      <c r="S170" t="s">
+        <v>569</v>
+      </c>
+      <c r="T170" t="s">
+        <v>572</v>
+      </c>
+      <c r="U170" t="s">
+        <v>573</v>
+      </c>
+      <c r="V170" t="s">
         <v>497</v>
       </c>
-      <c r="S170">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>57</v>
       </c>
@@ -12614,13 +14682,25 @@
         <v>10</v>
       </c>
       <c r="R171" t="s">
+        <v>568</v>
+      </c>
+      <c r="S171" t="s">
+        <v>569</v>
+      </c>
+      <c r="T171" t="s">
+        <v>572</v>
+      </c>
+      <c r="U171" t="s">
+        <v>573</v>
+      </c>
+      <c r="V171" t="s">
         <v>504</v>
       </c>
-      <c r="S171">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>57</v>
       </c>
@@ -12673,13 +14753,25 @@
         <v>10</v>
       </c>
       <c r="R172" t="s">
+        <v>568</v>
+      </c>
+      <c r="S172" t="s">
+        <v>569</v>
+      </c>
+      <c r="T172" t="s">
+        <v>572</v>
+      </c>
+      <c r="U172" t="s">
+        <v>573</v>
+      </c>
+      <c r="V172" t="s">
         <v>507</v>
       </c>
-      <c r="S172">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>57</v>
       </c>
@@ -12729,13 +14821,25 @@
         <v>10</v>
       </c>
       <c r="R173" t="s">
+        <v>568</v>
+      </c>
+      <c r="S173" t="s">
+        <v>569</v>
+      </c>
+      <c r="T173" t="s">
+        <v>572</v>
+      </c>
+      <c r="U173" t="s">
+        <v>573</v>
+      </c>
+      <c r="V173" t="s">
         <v>512</v>
       </c>
-      <c r="S173">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>57</v>
       </c>
@@ -12785,13 +14889,25 @@
         <v>10</v>
       </c>
       <c r="R174" t="s">
+        <v>568</v>
+      </c>
+      <c r="S174" t="s">
+        <v>569</v>
+      </c>
+      <c r="T174" t="s">
+        <v>572</v>
+      </c>
+      <c r="U174" t="s">
+        <v>573</v>
+      </c>
+      <c r="V174" t="s">
         <v>515</v>
       </c>
-      <c r="S174">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>57</v>
       </c>
@@ -12841,13 +14957,25 @@
         <v>10</v>
       </c>
       <c r="R175" t="s">
+        <v>568</v>
+      </c>
+      <c r="S175" t="s">
+        <v>569</v>
+      </c>
+      <c r="T175" t="s">
+        <v>572</v>
+      </c>
+      <c r="U175" t="s">
+        <v>573</v>
+      </c>
+      <c r="V175" t="s">
         <v>518</v>
       </c>
-      <c r="S175">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>57</v>
       </c>
@@ -12897,13 +15025,25 @@
         <v>10</v>
       </c>
       <c r="R176" t="s">
+        <v>568</v>
+      </c>
+      <c r="S176" t="s">
+        <v>569</v>
+      </c>
+      <c r="T176" t="s">
+        <v>572</v>
+      </c>
+      <c r="U176" t="s">
+        <v>573</v>
+      </c>
+      <c r="V176" t="s">
         <v>521</v>
       </c>
-      <c r="S176">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W176">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>57</v>
       </c>
@@ -12952,11 +15092,23 @@
       <c r="Q177" t="s">
         <v>10</v>
       </c>
-      <c r="S177">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R177" t="s">
+        <v>568</v>
+      </c>
+      <c r="S177" t="s">
+        <v>569</v>
+      </c>
+      <c r="T177" t="s">
+        <v>572</v>
+      </c>
+      <c r="U177" t="s">
+        <v>573</v>
+      </c>
+      <c r="W177">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>57</v>
       </c>
@@ -13005,11 +15157,23 @@
       <c r="Q178" t="s">
         <v>10</v>
       </c>
-      <c r="S178">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R178" t="s">
+        <v>568</v>
+      </c>
+      <c r="S178" t="s">
+        <v>569</v>
+      </c>
+      <c r="T178" t="s">
+        <v>572</v>
+      </c>
+      <c r="U178" t="s">
+        <v>573</v>
+      </c>
+      <c r="W178">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>57</v>
       </c>
@@ -13059,13 +15223,25 @@
         <v>10</v>
       </c>
       <c r="R179" t="s">
+        <v>568</v>
+      </c>
+      <c r="S179" t="s">
+        <v>569</v>
+      </c>
+      <c r="T179" t="s">
+        <v>572</v>
+      </c>
+      <c r="U179" t="s">
+        <v>573</v>
+      </c>
+      <c r="V179" t="s">
         <v>528</v>
       </c>
-      <c r="S179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>57</v>
       </c>
@@ -13115,13 +15291,25 @@
         <v>10</v>
       </c>
       <c r="R180" t="s">
+        <v>568</v>
+      </c>
+      <c r="S180" t="s">
+        <v>569</v>
+      </c>
+      <c r="T180" t="s">
+        <v>572</v>
+      </c>
+      <c r="U180" t="s">
+        <v>573</v>
+      </c>
+      <c r="V180" t="s">
         <v>531</v>
       </c>
-      <c r="S180">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W180">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>57</v>
       </c>
@@ -13171,13 +15359,25 @@
         <v>10</v>
       </c>
       <c r="R181" t="s">
+        <v>568</v>
+      </c>
+      <c r="S181" t="s">
+        <v>569</v>
+      </c>
+      <c r="T181" t="s">
+        <v>572</v>
+      </c>
+      <c r="U181" t="s">
+        <v>573</v>
+      </c>
+      <c r="V181" t="s">
         <v>534</v>
       </c>
-      <c r="S181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>57</v>
       </c>
@@ -13227,13 +15427,25 @@
         <v>10</v>
       </c>
       <c r="R182" t="s">
+        <v>568</v>
+      </c>
+      <c r="S182" t="s">
+        <v>569</v>
+      </c>
+      <c r="T182" t="s">
+        <v>572</v>
+      </c>
+      <c r="U182" t="s">
+        <v>573</v>
+      </c>
+      <c r="V182" t="s">
         <v>537</v>
       </c>
-      <c r="S182">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>57</v>
       </c>
@@ -13283,13 +15495,25 @@
         <v>10</v>
       </c>
       <c r="R183" t="s">
+        <v>568</v>
+      </c>
+      <c r="S183" t="s">
+        <v>569</v>
+      </c>
+      <c r="T183" t="s">
+        <v>572</v>
+      </c>
+      <c r="U183" t="s">
+        <v>573</v>
+      </c>
+      <c r="V183" t="s">
         <v>540</v>
       </c>
-      <c r="S183">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>57</v>
       </c>
@@ -13339,13 +15563,25 @@
         <v>10</v>
       </c>
       <c r="R184" t="s">
+        <v>568</v>
+      </c>
+      <c r="S184" t="s">
+        <v>569</v>
+      </c>
+      <c r="T184" t="s">
+        <v>572</v>
+      </c>
+      <c r="U184" t="s">
+        <v>573</v>
+      </c>
+      <c r="V184" t="s">
         <v>544</v>
       </c>
-      <c r="S184">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>57</v>
       </c>
@@ -13395,13 +15631,25 @@
         <v>10</v>
       </c>
       <c r="R185" t="s">
+        <v>568</v>
+      </c>
+      <c r="S185" t="s">
+        <v>569</v>
+      </c>
+      <c r="T185" t="s">
+        <v>572</v>
+      </c>
+      <c r="U185" t="s">
+        <v>573</v>
+      </c>
+      <c r="V185" t="s">
         <v>547</v>
       </c>
-      <c r="S185">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>57</v>
       </c>
@@ -13451,20 +15699,41 @@
         <v>10</v>
       </c>
       <c r="R186" t="s">
+        <v>568</v>
+      </c>
+      <c r="S186" t="s">
+        <v>569</v>
+      </c>
+      <c r="T186" t="s">
+        <v>572</v>
+      </c>
+      <c r="U186" t="s">
+        <v>573</v>
+      </c>
+      <c r="V186" t="s">
         <v>550</v>
       </c>
-      <c r="S186">
+      <c r="W186">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S186" xr:uid="{CFAF22AA-19BE-415B-B759-B3C65A3D44B9}"/>
+  <autoFilter ref="A1:W186" xr:uid="{CFAF22AA-19BE-415B-B759-B3C65A3D44B9}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -13687,15 +15956,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13705,6 +15965,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850F5EA5-C41F-4C53-84CF-3F03E0DBF25B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CB9152-EA83-499D-8208-893EDCA8552F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13723,14 +15991,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{850F5EA5-C41F-4C53-84CF-3F03E0DBF25B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F0E941-2A8A-483B-BA36-0B69E7ADE336}">
   <ds:schemaRefs>
